--- a/Eye_Tracker_Raw_Data/LookTime/Encoding/Tadpole_ET_summary_EE_block1_250ms.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/Encoding/Tadpole_ET_summary_EE_block1_250ms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="120">
   <si>
     <t>Fixation Duration_bell.bmp_target_Sum</t>
   </si>
@@ -714,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4659,6 +4659,207 @@
       </c>
       <c r="K114">
         <v>2.34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" t="s">
+        <v>72</v>
+      </c>
+      <c r="D115" t="s">
+        <v>73</v>
+      </c>
+      <c r="E115" t="s">
+        <v>74</v>
+      </c>
+      <c r="F115" t="s">
+        <v>75</v>
+      </c>
+      <c r="G115" t="s">
+        <v>76</v>
+      </c>
+      <c r="H115" t="s">
+        <v>77</v>
+      </c>
+      <c r="I115" t="s">
+        <v>78</v>
+      </c>
+      <c r="J115" t="s">
+        <v>79</v>
+      </c>
+      <c r="K115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>133</v>
+      </c>
+      <c r="B116">
+        <v>2.78</v>
+      </c>
+      <c r="C116">
+        <v>2.86</v>
+      </c>
+      <c r="D116">
+        <v>2.44</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116">
+        <v>2.81</v>
+      </c>
+      <c r="G116">
+        <v>2.84</v>
+      </c>
+      <c r="H116">
+        <v>2.97</v>
+      </c>
+      <c r="I116">
+        <v>2.98</v>
+      </c>
+      <c r="J116">
+        <v>1.83</v>
+      </c>
+      <c r="K116">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117" t="s">
+        <v>83</v>
+      </c>
+      <c r="E117" t="s">
+        <v>84</v>
+      </c>
+      <c r="F117" t="s">
+        <v>85</v>
+      </c>
+      <c r="G117" t="s">
+        <v>86</v>
+      </c>
+      <c r="H117" t="s">
+        <v>87</v>
+      </c>
+      <c r="I117" t="s">
+        <v>88</v>
+      </c>
+      <c r="J117" t="s">
+        <v>89</v>
+      </c>
+      <c r="K117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>134</v>
+      </c>
+      <c r="B118">
+        <v>0.69</v>
+      </c>
+      <c r="C118">
+        <v>2.97</v>
+      </c>
+      <c r="D118">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E118">
+        <v>2.35</v>
+      </c>
+      <c r="F118">
+        <v>1.69</v>
+      </c>
+      <c r="G118">
+        <v>2.83</v>
+      </c>
+      <c r="H118">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I118">
+        <v>2.68</v>
+      </c>
+      <c r="J118">
+        <v>2.97</v>
+      </c>
+      <c r="K118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" t="s">
+        <v>92</v>
+      </c>
+      <c r="D119" t="s">
+        <v>93</v>
+      </c>
+      <c r="E119" t="s">
+        <v>94</v>
+      </c>
+      <c r="F119" t="s">
+        <v>84</v>
+      </c>
+      <c r="G119" t="s">
+        <v>95</v>
+      </c>
+      <c r="H119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I119" t="s">
+        <v>97</v>
+      </c>
+      <c r="J119" t="s">
+        <v>98</v>
+      </c>
+      <c r="K119" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>135</v>
+      </c>
+      <c r="B120">
+        <v>1.44</v>
+      </c>
+      <c r="C120">
+        <v>1.5</v>
+      </c>
+      <c r="D120">
+        <v>2.83</v>
+      </c>
+      <c r="E120">
+        <v>2.77</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120">
+        <v>2.56</v>
+      </c>
+      <c r="I120">
+        <v>1.62</v>
+      </c>
+      <c r="J120">
+        <v>2.97</v>
+      </c>
+      <c r="K120">
+        <v>2.98</v>
       </c>
     </row>
   </sheetData>

--- a/Eye_Tracker_Raw_Data/LookTime/Encoding/Tadpole_ET_summary_EE_block1_250ms.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/Encoding/Tadpole_ET_summary_EE_block1_250ms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-10425" yWindow="1440" windowWidth="14805" windowHeight="7890" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="0-All" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="120">
   <si>
     <t>Fixation Duration_bell.bmp_target_Sum</t>
   </si>
@@ -391,12 +391,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -411,8 +417,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:K120"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,1008 +763,1017 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>2.79</v>
-      </c>
-      <c r="C2">
-        <v>2.99</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>1.89</v>
+        <v>1.18</v>
       </c>
       <c r="E2">
-        <v>2.59</v>
+        <v>0.67</v>
       </c>
       <c r="F2">
-        <v>2.99</v>
+        <v>2.25</v>
       </c>
       <c r="G2">
-        <v>2.98</v>
+        <v>1.83</v>
       </c>
       <c r="H2">
-        <v>2.98</v>
+        <v>0.82</v>
       </c>
       <c r="I2">
-        <v>1.94</v>
+        <v>0.25</v>
       </c>
       <c r="J2">
-        <v>2.73</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K2">
-        <v>1.49</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>1.6</v>
-      </c>
-      <c r="C3">
-        <v>2.11</v>
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0.47</v>
+        <v>0.96</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>1.65</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G3">
-        <v>1.6</v>
-      </c>
-      <c r="H3">
-        <v>1.67</v>
+        <v>1.28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3">
-        <v>0.77</v>
+        <v>1.43</v>
       </c>
       <c r="K3">
-        <v>2.21</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>2.98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>2.79</v>
+      </c>
+      <c r="C4">
+        <v>2.99</v>
       </c>
       <c r="D4">
-        <v>2.4700000000000002</v>
+        <v>1.89</v>
       </c>
       <c r="E4">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="F4">
-        <v>2.5499999999999998</v>
+        <v>2.99</v>
       </c>
       <c r="G4">
-        <v>0.85</v>
+        <v>2.98</v>
       </c>
       <c r="H4">
         <v>2.98</v>
       </c>
-      <c r="I4" t="s">
-        <v>10</v>
+      <c r="I4">
+        <v>1.94</v>
       </c>
       <c r="J4">
-        <v>1.82</v>
+        <v>2.73</v>
       </c>
       <c r="K4">
-        <v>2.98</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>2.86</v>
+        <v>1.6</v>
       </c>
       <c r="C5">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
       <c r="D5">
-        <v>2.65</v>
-      </c>
-      <c r="E5">
-        <v>2.98</v>
+        <v>0.47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>2.85</v>
+        <v>1.65</v>
       </c>
       <c r="G5">
-        <v>2.72</v>
+        <v>1.6</v>
       </c>
       <c r="H5">
-        <v>2.97</v>
-      </c>
-      <c r="I5">
-        <v>1.56</v>
+        <v>1.67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>1.61</v>
+        <v>0.77</v>
       </c>
       <c r="K5">
-        <v>2.83</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>2.64</v>
+        <v>2.23</v>
       </c>
       <c r="C6">
-        <v>2.3199999999999998</v>
+        <v>1.69</v>
       </c>
       <c r="D6">
-        <v>2.1800000000000002</v>
+        <v>2.91</v>
       </c>
       <c r="E6">
-        <v>1.78</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2.74</v>
+        <v>2.87</v>
       </c>
       <c r="G6">
-        <v>1.1399999999999999</v>
+        <v>2.99</v>
       </c>
       <c r="H6">
-        <v>2.98</v>
+        <v>2.57</v>
       </c>
       <c r="I6">
-        <v>2.25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="J6">
+        <v>2.86</v>
       </c>
       <c r="K6">
-        <v>2.71</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>1.43</v>
+        <v>2.99</v>
       </c>
       <c r="C7">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
       <c r="D7">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="E7">
         <v>2.41</v>
       </c>
       <c r="F7">
-        <v>2.99</v>
+        <v>1.83</v>
       </c>
       <c r="G7">
-        <v>1.61</v>
+        <v>2.76</v>
       </c>
       <c r="H7">
-        <v>2.99</v>
+        <v>1.18</v>
       </c>
       <c r="I7">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="J7">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="K7">
-        <v>2.98</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="B8">
+        <v>2.67</v>
+      </c>
+      <c r="C8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D8">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E8">
+        <v>1.82</v>
+      </c>
+      <c r="F8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.62</v>
+      </c>
+      <c r="H8">
+        <v>0.69</v>
+      </c>
+      <c r="I8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J8">
+        <v>1.96</v>
+      </c>
+      <c r="K8">
         <v>2.65</v>
-      </c>
-      <c r="C8">
-        <v>0.92</v>
-      </c>
-      <c r="D8">
-        <v>1.42</v>
-      </c>
-      <c r="E8">
-        <v>1.74</v>
-      </c>
-      <c r="F8">
-        <v>2.77</v>
-      </c>
-      <c r="G8">
-        <v>1.56</v>
-      </c>
-      <c r="H8">
-        <v>1.45</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>2.98</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>2.97</v>
+        <v>1.92</v>
       </c>
       <c r="C9">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
+        <v>1.69</v>
+      </c>
+      <c r="D9">
+        <v>1.71</v>
       </c>
       <c r="E9">
-        <v>0.48</v>
+        <v>1.93</v>
       </c>
       <c r="F9">
-        <v>2.61</v>
+        <v>2.98</v>
       </c>
       <c r="G9">
-        <v>0.95</v>
+        <v>2.78</v>
       </c>
       <c r="H9">
-        <v>2.37</v>
+        <v>2.98</v>
       </c>
       <c r="I9">
-        <v>0.8</v>
+        <v>2.31</v>
       </c>
       <c r="J9">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="K9">
-        <v>1.07</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
+      <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>1.6</v>
+      </c>
+      <c r="C10">
+        <v>1.9</v>
+      </c>
+      <c r="D10">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E10">
+        <v>1.31</v>
+      </c>
+      <c r="F10">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G10">
+        <v>1.03</v>
+      </c>
+      <c r="H10">
+        <v>1.77</v>
+      </c>
+      <c r="I10">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J10">
+        <v>2.1</v>
+      </c>
+      <c r="K10">
+        <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>2.81</v>
+      </c>
+      <c r="C11">
+        <v>2.99</v>
       </c>
       <c r="D11">
-        <v>0.96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
+        <v>1.39</v>
+      </c>
+      <c r="E11">
+        <v>2.74</v>
       </c>
       <c r="F11">
-        <v>2.2999999999999998</v>
+        <v>2.98</v>
       </c>
       <c r="G11">
-        <v>1.28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
+        <v>1.59</v>
+      </c>
+      <c r="H11">
+        <v>2.94</v>
+      </c>
+      <c r="I11">
+        <v>2.75</v>
       </c>
       <c r="J11">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="K11">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>2.23</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>1.69</v>
-      </c>
-      <c r="D12">
-        <v>2.91</v>
+        <v>1.2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="F12">
-        <v>2.87</v>
+        <v>1.62</v>
       </c>
       <c r="G12">
-        <v>2.99</v>
+        <v>0.88</v>
       </c>
       <c r="H12">
-        <v>2.57</v>
+        <v>0.37</v>
       </c>
       <c r="I12">
-        <v>2.5099999999999998</v>
+        <v>1.57</v>
       </c>
       <c r="J12">
-        <v>2.86</v>
-      </c>
-      <c r="K12">
-        <v>2.59</v>
+        <v>0.32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>1.95</v>
       </c>
       <c r="D13">
-        <v>1.1599999999999999</v>
+        <v>2.98</v>
       </c>
       <c r="E13">
-        <v>2.68</v>
+        <v>1.9</v>
       </c>
       <c r="F13">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="G13">
-        <v>1.5</v>
+        <v>2.77</v>
       </c>
       <c r="H13">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="I13">
-        <v>0.27</v>
+        <v>2.76</v>
       </c>
       <c r="J13">
-        <v>2.99</v>
-      </c>
-      <c r="K13">
-        <v>2.8</v>
+        <v>2.54</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B14">
-        <v>2.2599999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C14">
-        <v>2.34</v>
+        <v>0.37</v>
       </c>
       <c r="D14">
-        <v>2.98</v>
+        <v>0.2</v>
       </c>
       <c r="E14">
-        <v>2.46</v>
+        <v>2.75</v>
       </c>
       <c r="F14">
-        <v>2.61</v>
+        <v>1.63</v>
       </c>
       <c r="G14">
-        <v>2.98</v>
+        <v>2.44</v>
       </c>
       <c r="H14">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="I14">
-        <v>2.57</v>
+        <v>1.47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>2.88</v>
+        <v>1.53</v>
       </c>
       <c r="K14">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>2.98</v>
+        <v>2.42</v>
       </c>
       <c r="D15">
-        <v>2.58</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E15">
-        <v>2.97</v>
+        <v>1.63</v>
       </c>
       <c r="F15">
-        <v>1.3</v>
+        <v>2.04</v>
       </c>
       <c r="G15">
-        <v>2.97</v>
+        <v>1.96</v>
       </c>
       <c r="H15">
-        <v>2.84</v>
+        <v>1.73</v>
       </c>
       <c r="I15">
-        <v>2.98</v>
+        <v>2.46</v>
       </c>
       <c r="J15">
-        <v>2.82</v>
+        <v>1.73</v>
       </c>
       <c r="K15">
-        <v>0.02</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>2.27</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C16">
-        <v>2.33</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D16">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="E16">
-        <v>2.23</v>
+        <v>2.98</v>
       </c>
       <c r="F16">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
       <c r="G16">
-        <v>2.35</v>
+        <v>1.61</v>
       </c>
       <c r="H16">
-        <v>2.29</v>
+        <v>1.24</v>
       </c>
       <c r="I16">
-        <v>2.64</v>
+        <v>0.53</v>
       </c>
       <c r="J16">
-        <v>2.27</v>
+        <v>0.98</v>
       </c>
       <c r="K16">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B17">
-        <v>1.94</v>
+        <v>2.77</v>
       </c>
       <c r="C17">
-        <v>1.55</v>
+        <v>2.14</v>
       </c>
       <c r="D17">
-        <v>1.63</v>
+        <v>2.98</v>
       </c>
       <c r="E17">
-        <v>2.4700000000000002</v>
+        <v>2.58</v>
       </c>
       <c r="F17">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="G17">
-        <v>1.03</v>
+        <v>1.48</v>
       </c>
       <c r="H17">
-        <v>2.4300000000000002</v>
+        <v>2.61</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="J17">
-        <v>1.82</v>
+        <v>2.75</v>
       </c>
       <c r="K17">
-        <v>2.3199999999999998</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="C18">
-        <v>2.83</v>
+        <v>0.3</v>
       </c>
       <c r="D18">
-        <v>2.48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E18">
+        <v>2.68</v>
+      </c>
+      <c r="F18">
+        <v>2.97</v>
       </c>
       <c r="G18">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="H18">
-        <v>1.47</v>
+        <v>2.31</v>
       </c>
       <c r="I18">
-        <v>1.86</v>
+        <v>0.27</v>
       </c>
       <c r="J18">
-        <v>0.36</v>
+        <v>2.99</v>
       </c>
       <c r="K18">
-        <v>2.4500000000000002</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>1.04</v>
+        <v>2.77</v>
       </c>
       <c r="C19">
-        <v>1.04</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D19">
-        <v>0.02</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
+        <v>2.98</v>
+      </c>
+      <c r="E19">
+        <v>1.38</v>
       </c>
       <c r="F19">
-        <v>2.77</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G19">
-        <v>2.97</v>
-      </c>
-      <c r="H19">
-        <v>2.63</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" t="s">
-        <v>10</v>
+        <v>2.42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>1.36</v>
+      </c>
+      <c r="J19">
+        <v>2.64</v>
+      </c>
+      <c r="K19">
+        <v>2.25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" t="s">
-        <v>30</v>
+      <c r="A20">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>0.8</v>
+      </c>
+      <c r="C20">
+        <v>2.83</v>
+      </c>
+      <c r="D20">
+        <v>2.99</v>
+      </c>
+      <c r="E20">
+        <v>2.31</v>
+      </c>
+      <c r="F20">
+        <v>1.52</v>
+      </c>
+      <c r="G20">
+        <v>1.8</v>
+      </c>
+      <c r="H20">
+        <v>2.31</v>
+      </c>
+      <c r="I20">
+        <v>2.09</v>
+      </c>
+      <c r="J20">
+        <v>2.83</v>
+      </c>
+      <c r="K20">
+        <v>1.67</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B21">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
+        <v>2.98</v>
+      </c>
+      <c r="C21">
+        <v>2.41</v>
       </c>
       <c r="D21">
-        <v>1.18</v>
+        <v>1.92</v>
       </c>
       <c r="E21">
-        <v>0.67</v>
+        <v>2.98</v>
       </c>
       <c r="F21">
-        <v>2.25</v>
+        <v>2.98</v>
       </c>
       <c r="G21">
-        <v>1.83</v>
+        <v>2.98</v>
       </c>
       <c r="H21">
-        <v>0.82</v>
+        <v>2.76</v>
       </c>
       <c r="I21">
-        <v>0.25</v>
+        <v>2.98</v>
       </c>
       <c r="J21">
-        <v>2.0699999999999998</v>
+        <v>2.38</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B22">
+        <v>1.46</v>
+      </c>
+      <c r="C22">
         <v>2.99</v>
       </c>
-      <c r="C22">
-        <v>2.82</v>
-      </c>
       <c r="D22">
-        <v>2.94</v>
+        <v>2.62</v>
       </c>
       <c r="E22">
-        <v>2.41</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F22">
-        <v>1.83</v>
-      </c>
-      <c r="G22">
-        <v>2.76</v>
+        <v>2.56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>1.18</v>
+        <v>2.48</v>
       </c>
       <c r="I22">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="J22">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="K22">
-        <v>2.37</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B23">
-        <v>2.77</v>
+        <v>1.33</v>
       </c>
       <c r="C23">
-        <v>2.3199999999999998</v>
+        <v>1.17</v>
       </c>
       <c r="D23">
         <v>2.98</v>
       </c>
       <c r="E23">
-        <v>1.38</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F23">
-        <v>2.2000000000000002</v>
+        <v>2.97</v>
       </c>
       <c r="G23">
-        <v>2.42</v>
-      </c>
-      <c r="H23" t="s">
-        <v>10</v>
+        <v>1.7</v>
+      </c>
+      <c r="H23">
+        <v>0.77</v>
       </c>
       <c r="I23">
-        <v>1.36</v>
+        <v>2.67</v>
       </c>
       <c r="J23">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B24">
-        <v>2.29</v>
+        <v>2.99</v>
       </c>
       <c r="C24">
-        <v>2.46</v>
+        <v>2.83</v>
       </c>
       <c r="D24">
-        <v>2.5299999999999998</v>
+        <v>2.97</v>
       </c>
       <c r="E24">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="F24">
-        <v>2.71</v>
+        <v>2.98</v>
       </c>
       <c r="G24">
-        <v>1.92</v>
+        <v>2.98</v>
       </c>
       <c r="H24">
-        <v>1.88</v>
+        <v>2.98</v>
       </c>
       <c r="I24">
-        <v>2.5099999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="J24">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="K24">
-        <v>1.96</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B25">
-        <v>1.82</v>
+        <v>2.99</v>
       </c>
       <c r="C25">
-        <v>1.93</v>
+        <v>2.98</v>
       </c>
       <c r="D25">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="E25">
-        <v>2.2799999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="F25">
-        <v>2.35</v>
+        <v>2.98</v>
       </c>
       <c r="G25">
-        <v>2.73</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H25">
-        <v>2.06</v>
+        <v>2.62</v>
       </c>
       <c r="I25">
-        <v>1.83</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="J25">
-        <v>1.94</v>
+        <v>2.8</v>
       </c>
       <c r="K25">
-        <v>1.7</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>92</v>
-      </c>
-      <c r="B26">
-        <v>2.78</v>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>2.98</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D26">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="E26">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F26">
-        <v>2.99</v>
+        <v>2.65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>2.98</v>
+        <v>1.28</v>
       </c>
       <c r="H26">
-        <v>2.96</v>
+        <v>1.87</v>
       </c>
       <c r="I26">
-        <v>2.99</v>
+        <v>0.95</v>
       </c>
       <c r="J26">
-        <v>2.98</v>
+        <v>1.34</v>
       </c>
       <c r="K26">
-        <v>0.67</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="B27">
-        <v>2.98</v>
+        <v>0.52</v>
       </c>
       <c r="C27">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="D27">
-        <v>2.98</v>
+        <v>1.57</v>
       </c>
       <c r="E27">
-        <v>2.52</v>
-      </c>
-      <c r="F27">
-        <v>2.97</v>
+        <v>1.04</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>1.78</v>
+        <v>1.02</v>
       </c>
       <c r="H27">
-        <v>2.79</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2.85</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J27">
-        <v>2.99</v>
+        <v>1.25</v>
       </c>
       <c r="K27">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>31</v>
+      <c r="A28">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>2.98</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E28">
+        <v>2.57</v>
+      </c>
+      <c r="F28">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.85</v>
+      </c>
+      <c r="H28">
+        <v>2.98</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>1.82</v>
+      </c>
+      <c r="K28">
+        <v>2.98</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B29">
-        <v>2.67</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C29">
-        <v>1.1599999999999999</v>
+        <v>2.34</v>
       </c>
       <c r="D29">
-        <v>2.4700000000000002</v>
+        <v>2.98</v>
       </c>
       <c r="E29">
-        <v>1.82</v>
+        <v>2.46</v>
       </c>
       <c r="F29">
-        <v>1.1599999999999999</v>
+        <v>2.61</v>
       </c>
       <c r="G29">
-        <v>1.62</v>
+        <v>2.98</v>
       </c>
       <c r="H29">
-        <v>0.69</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I29">
-        <v>1.1200000000000001</v>
+        <v>2.57</v>
       </c>
       <c r="J29">
-        <v>1.96</v>
+        <v>2.88</v>
       </c>
       <c r="K29">
-        <v>2.65</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B30">
-        <v>0.8</v>
+        <v>2.29</v>
       </c>
       <c r="C30">
-        <v>2.83</v>
+        <v>2.46</v>
       </c>
       <c r="D30">
-        <v>2.99</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E30">
-        <v>2.31</v>
+        <v>2.84</v>
       </c>
       <c r="F30">
-        <v>1.52</v>
+        <v>2.71</v>
       </c>
       <c r="G30">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="H30">
-        <v>2.31</v>
+        <v>1.88</v>
       </c>
       <c r="I30">
-        <v>2.09</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J30">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="K30">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1797,3072 +1813,5324 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B32">
-        <v>2.74</v>
+        <v>2.13</v>
       </c>
       <c r="C32">
-        <v>2.98</v>
+        <v>2.02</v>
       </c>
       <c r="D32">
-        <v>1.91</v>
+        <v>2.44</v>
       </c>
       <c r="E32">
-        <v>2.98</v>
+        <v>0.17</v>
       </c>
       <c r="F32">
-        <v>2.58</v>
+        <v>1.99</v>
       </c>
       <c r="G32">
-        <v>0.84</v>
+        <v>2.02</v>
       </c>
       <c r="H32">
-        <v>2.5499999999999998</v>
+        <v>2.98</v>
       </c>
       <c r="I32">
+        <v>2.78</v>
+      </c>
+      <c r="J32">
         <v>2.99</v>
       </c>
-      <c r="J32">
-        <v>2.83</v>
-      </c>
-      <c r="K32">
-        <v>2.84</v>
+      <c r="K32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B33">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="C33">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="D33">
-        <v>1.57</v>
-      </c>
-      <c r="E33">
-        <v>1.8</v>
+        <v>2.96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>2.29</v>
-      </c>
-      <c r="G33">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="H33">
-        <v>2.54</v>
+        <v>2.64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>2.88</v>
+        <v>0.02</v>
       </c>
       <c r="J33">
-        <v>2.5499999999999998</v>
+        <v>2.81</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B34">
+        <v>2.99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>1.98</v>
+      </c>
+      <c r="E34">
+        <v>1.25</v>
+      </c>
+      <c r="F34">
+        <v>2.74</v>
+      </c>
+      <c r="G34">
+        <v>0.9</v>
+      </c>
+      <c r="H34">
+        <v>1.87</v>
+      </c>
+      <c r="I34">
+        <v>2.98</v>
+      </c>
+      <c r="J34">
         <v>2.72</v>
       </c>
-      <c r="C34">
-        <v>2.68</v>
-      </c>
-      <c r="D34">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="E34">
-        <v>1.92</v>
-      </c>
-      <c r="F34">
-        <v>2.58</v>
-      </c>
-      <c r="G34">
-        <v>2.6</v>
-      </c>
-      <c r="H34">
-        <v>2.46</v>
-      </c>
-      <c r="I34">
-        <v>2.99</v>
-      </c>
-      <c r="J34">
-        <v>2.66</v>
-      </c>
       <c r="K34">
-        <v>2.2599999999999998</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B35">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="C35">
-        <v>2.75</v>
+        <v>0.83</v>
       </c>
       <c r="D35">
-        <v>2.86</v>
+        <v>0.98</v>
       </c>
       <c r="E35">
+        <v>0.8</v>
+      </c>
+      <c r="F35">
+        <v>0.48</v>
+      </c>
+      <c r="G35">
+        <v>2.6</v>
+      </c>
+      <c r="H35">
+        <v>0.45</v>
+      </c>
+      <c r="I35">
+        <v>1.87</v>
+      </c>
+      <c r="J35">
+        <v>1.42</v>
+      </c>
+      <c r="K35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.83</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="I36" s="1">
         <v>2.99</v>
       </c>
-      <c r="F35">
-        <v>2.98</v>
-      </c>
-      <c r="G35">
-        <v>2.66</v>
-      </c>
-      <c r="H35">
-        <v>2.98</v>
-      </c>
-      <c r="I35">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="J35">
-        <v>2.98</v>
-      </c>
-      <c r="K35">
+      <c r="J36" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>117</v>
-      </c>
-      <c r="B36">
-        <v>2.77</v>
-      </c>
-      <c r="C36">
-        <v>0.94</v>
-      </c>
-      <c r="D36">
-        <v>2.98</v>
-      </c>
-      <c r="E36">
-        <v>1.43</v>
-      </c>
-      <c r="F36">
+      <c r="C37" s="1">
         <v>2.97</v>
       </c>
-      <c r="G36">
-        <v>1.35</v>
-      </c>
-      <c r="H36">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="I36">
-        <v>1.42</v>
-      </c>
-      <c r="J36">
-        <v>2.98</v>
-      </c>
-      <c r="K36">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" t="s">
-        <v>50</v>
+      <c r="D37" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2.98</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B38">
-        <v>1.92</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C38">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="D38">
-        <v>1.71</v>
+        <v>1.35</v>
       </c>
       <c r="E38">
-        <v>1.93</v>
+        <v>2.98</v>
       </c>
       <c r="F38">
-        <v>2.98</v>
+        <v>1.44</v>
       </c>
       <c r="G38">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="H38">
-        <v>2.98</v>
+        <v>1.67</v>
       </c>
       <c r="I38">
-        <v>2.31</v>
+        <v>1.97</v>
       </c>
       <c r="J38">
-        <v>1.49</v>
+        <v>2.48</v>
       </c>
       <c r="K38">
-        <v>1.83</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="C39">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="D39">
-        <v>1.92</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E39">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="F39">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="G39">
-        <v>2.98</v>
+        <v>2.71</v>
       </c>
       <c r="H39">
-        <v>2.76</v>
+        <v>2.97</v>
       </c>
       <c r="I39">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="J39">
-        <v>2.38</v>
+        <v>2.77</v>
       </c>
       <c r="K39">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B40">
-        <v>2.13</v>
+        <v>1.17</v>
       </c>
       <c r="C40">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="D40">
-        <v>2.44</v>
+        <v>1.67</v>
       </c>
       <c r="E40">
-        <v>0.17</v>
+        <v>2.27</v>
       </c>
       <c r="F40">
-        <v>1.99</v>
+        <v>1.68</v>
       </c>
       <c r="G40">
-        <v>2.02</v>
+        <v>0.15</v>
       </c>
       <c r="H40">
         <v>2.98</v>
       </c>
       <c r="I40">
-        <v>2.78</v>
-      </c>
-      <c r="J40">
-        <v>2.99</v>
-      </c>
-      <c r="K40" t="s">
-        <v>10</v>
+        <v>2.6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>2.35</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B41">
-        <v>2.99</v>
+        <v>2.86</v>
       </c>
       <c r="C41">
-        <v>0.6</v>
+        <v>2.04</v>
       </c>
       <c r="D41">
-        <v>2.2999999999999998</v>
+        <v>2.65</v>
       </c>
       <c r="E41">
-        <v>2.46</v>
+        <v>2.98</v>
       </c>
       <c r="F41">
-        <v>1.31</v>
+        <v>2.85</v>
       </c>
       <c r="G41">
-        <v>2.0299999999999998</v>
+        <v>2.72</v>
       </c>
       <c r="H41">
-        <v>2.41</v>
+        <v>2.97</v>
       </c>
       <c r="I41">
-        <v>2.41</v>
+        <v>1.56</v>
       </c>
       <c r="J41">
-        <v>0.89</v>
+        <v>1.61</v>
       </c>
       <c r="K41">
-        <v>1.35</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>94</v>
-      </c>
-      <c r="B42">
-        <v>2.35</v>
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>2.04</v>
+        <v>2.98</v>
       </c>
       <c r="D42">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="E42">
-        <v>1.1299999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="F42">
-        <v>2.2799999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="G42">
-        <v>2.31</v>
+        <v>2.97</v>
       </c>
       <c r="H42">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="I42">
-        <v>2.83</v>
+        <v>2.98</v>
       </c>
       <c r="J42">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
       <c r="K42">
-        <v>0.42</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B43">
-        <v>2.75</v>
+        <v>1.82</v>
       </c>
       <c r="C43">
-        <v>0.65</v>
+        <v>1.93</v>
       </c>
       <c r="D43">
-        <v>2.98</v>
+        <v>2.69</v>
       </c>
       <c r="E43">
-        <v>2.98</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F43">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="G43">
-        <v>2.44</v>
+        <v>2.73</v>
       </c>
       <c r="H43">
-        <v>2.68</v>
+        <v>2.06</v>
       </c>
       <c r="I43">
-        <v>2.97</v>
+        <v>1.83</v>
       </c>
       <c r="J43">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="K43">
-        <v>2.56</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B44">
-        <v>2.97</v>
+        <v>2.74</v>
       </c>
       <c r="C44">
-        <v>2.5299999999999998</v>
+        <v>2.98</v>
       </c>
       <c r="D44">
+        <v>1.91</v>
+      </c>
+      <c r="E44">
+        <v>2.98</v>
+      </c>
+      <c r="F44">
         <v>2.58</v>
       </c>
-      <c r="E44">
-        <v>2.69</v>
-      </c>
-      <c r="F44">
-        <v>2.98</v>
-      </c>
       <c r="G44">
-        <v>2.98</v>
+        <v>0.84</v>
       </c>
       <c r="H44">
-        <v>2.65</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I44">
-        <v>2.52</v>
+        <v>2.99</v>
       </c>
       <c r="J44">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="K44">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B45">
-        <v>0.97</v>
+        <v>2.99</v>
       </c>
       <c r="C45">
-        <v>2.71</v>
+        <v>0.6</v>
       </c>
       <c r="D45">
-        <v>1.51</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E45">
-        <v>2.83</v>
+        <v>2.46</v>
       </c>
       <c r="F45">
-        <v>2.66</v>
-      </c>
-      <c r="G45" t="s">
-        <v>10</v>
+        <v>1.31</v>
+      </c>
+      <c r="G45">
+        <v>2.0299999999999998</v>
       </c>
       <c r="H45">
-        <v>2.31</v>
+        <v>2.41</v>
       </c>
       <c r="I45">
-        <v>1.3</v>
+        <v>2.41</v>
       </c>
       <c r="J45">
-        <v>2.98</v>
+        <v>0.89</v>
       </c>
       <c r="K45">
-        <v>2.81</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>71</v>
+      </c>
       <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1.18</v>
+      </c>
+      <c r="D46">
+        <v>2.37</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>0.69</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="J46" t="s">
-        <v>59</v>
-      </c>
-      <c r="K46" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B47">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="C47">
-        <v>1.9</v>
+        <v>2.73</v>
       </c>
       <c r="D47">
-        <v>2.0699999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="E47">
-        <v>1.31</v>
+        <v>1.92</v>
       </c>
       <c r="F47">
-        <v>1.1200000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="G47">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="H47">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
       <c r="I47">
-        <v>2.2599999999999998</v>
+        <v>1.08</v>
       </c>
       <c r="J47">
-        <v>2.1</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K47">
-        <v>0.21</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B48">
-        <v>2.77</v>
+        <v>1.89</v>
       </c>
       <c r="C48">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="D48">
         <v>2.98</v>
       </c>
       <c r="E48">
-        <v>2.58</v>
+        <v>1.26</v>
       </c>
       <c r="F48">
-        <v>2.7</v>
-      </c>
-      <c r="G48">
-        <v>1.48</v>
+        <v>1.68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>2.61</v>
+        <v>2.11</v>
       </c>
       <c r="I48">
-        <v>2.56</v>
+        <v>1.66</v>
       </c>
       <c r="J48">
-        <v>2.75</v>
+        <v>1.92</v>
       </c>
       <c r="K48">
-        <v>1.17</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B49">
-        <v>2.57</v>
+        <v>1.95</v>
       </c>
       <c r="C49">
-        <v>2.76</v>
+        <v>1.8</v>
       </c>
       <c r="D49">
-        <v>2.96</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
+        <v>2.58</v>
+      </c>
+      <c r="E49">
+        <v>1.5</v>
       </c>
       <c r="F49">
-        <v>2.64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" t="s">
-        <v>10</v>
+        <v>2.98</v>
+      </c>
+      <c r="G49">
+        <v>2.98</v>
+      </c>
+      <c r="H49">
+        <v>2.2599999999999998</v>
       </c>
       <c r="I49">
-        <v>0.02</v>
+        <v>1.41</v>
       </c>
       <c r="J49">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
       <c r="K49">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>71</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>76</v>
+      </c>
+      <c r="B50" s="1">
         <v>1.18</v>
       </c>
-      <c r="D50">
-        <v>2.37</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50">
-        <v>0.69</v>
-      </c>
-      <c r="G50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>83</v>
-      </c>
-      <c r="B51">
-        <v>2.98</v>
-      </c>
-      <c r="C51">
-        <v>2.71</v>
-      </c>
-      <c r="D51">
-        <v>2.64</v>
-      </c>
-      <c r="E51">
-        <v>2.75</v>
-      </c>
-      <c r="F51">
-        <v>2.71</v>
-      </c>
-      <c r="G51">
-        <v>2.97</v>
-      </c>
-      <c r="H51">
-        <v>2.99</v>
-      </c>
-      <c r="I51">
-        <v>2.99</v>
-      </c>
-      <c r="J51">
-        <v>2.98</v>
-      </c>
-      <c r="K51">
-        <v>2.82</v>
+      <c r="C50" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>76</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2.29</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B52">
-        <v>2.21</v>
+        <v>2.98</v>
       </c>
       <c r="C52">
-        <v>2.98</v>
+        <v>1.91</v>
       </c>
       <c r="D52">
-        <v>1.6</v>
+        <v>2.96</v>
       </c>
       <c r="E52">
-        <v>2.78</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F52">
-        <v>1.68</v>
-      </c>
-      <c r="G52">
-        <v>1.07</v>
+        <v>1.67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
       </c>
       <c r="H52">
-        <v>2.25</v>
+        <v>0.97</v>
       </c>
       <c r="I52">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J52">
-        <v>2.41</v>
+        <v>1.75</v>
+      </c>
+      <c r="J52" t="s">
+        <v>10</v>
       </c>
       <c r="K52">
-        <v>2.2599999999999998</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B53">
-        <v>1.1299999999999999</v>
+        <v>2.64</v>
       </c>
       <c r="C53">
-        <v>1.65</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D53">
-        <v>2.6</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="E53">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="F53">
-        <v>2.15</v>
+        <v>2.74</v>
       </c>
       <c r="G53">
-        <v>2.56</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H53">
-        <v>1.1299999999999999</v>
+        <v>2.98</v>
       </c>
       <c r="I53">
-        <v>1.78</v>
-      </c>
-      <c r="J53">
-        <v>1.53</v>
+        <v>2.25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>10</v>
       </c>
       <c r="K53">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>119</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="B54">
+        <v>2.27</v>
       </c>
       <c r="C54">
-        <v>0.6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>10</v>
+        <v>2.33</v>
+      </c>
+      <c r="D54">
+        <v>2.34</v>
+      </c>
+      <c r="E54">
+        <v>2.23</v>
+      </c>
+      <c r="F54">
+        <v>0.78</v>
+      </c>
+      <c r="G54">
+        <v>2.35</v>
       </c>
       <c r="H54">
-        <v>0.12</v>
+        <v>2.29</v>
       </c>
       <c r="I54">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J54" t="s">
-        <v>10</v>
+        <v>2.64</v>
+      </c>
+      <c r="J54">
+        <v>2.27</v>
       </c>
       <c r="K54">
-        <v>1.05</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-      <c r="I55" t="s">
-        <v>68</v>
-      </c>
-      <c r="J55" t="s">
-        <v>69</v>
-      </c>
-      <c r="K55" t="s">
-        <v>70</v>
+      <c r="A55">
+        <v>81</v>
+      </c>
+      <c r="B55">
+        <v>2.37</v>
+      </c>
+      <c r="C55">
+        <v>2.98</v>
+      </c>
+      <c r="D55">
+        <v>1.57</v>
+      </c>
+      <c r="E55">
+        <v>1.8</v>
+      </c>
+      <c r="F55">
+        <v>2.29</v>
+      </c>
+      <c r="G55">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H55">
+        <v>2.54</v>
+      </c>
+      <c r="I55">
+        <v>2.88</v>
+      </c>
+      <c r="J55">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K55">
+        <v>2.4</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B56">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="C56">
+        <v>2.71</v>
+      </c>
+      <c r="D56">
+        <v>2.64</v>
+      </c>
+      <c r="E56">
+        <v>2.75</v>
+      </c>
+      <c r="F56">
+        <v>2.71</v>
+      </c>
+      <c r="G56">
+        <v>2.97</v>
+      </c>
+      <c r="H56">
         <v>2.99</v>
       </c>
-      <c r="D56">
-        <v>1.39</v>
-      </c>
-      <c r="E56">
-        <v>2.74</v>
-      </c>
-      <c r="F56">
-        <v>2.98</v>
-      </c>
-      <c r="G56">
-        <v>1.59</v>
-      </c>
-      <c r="H56">
-        <v>2.94</v>
-      </c>
       <c r="I56">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="J56">
-        <v>1.27</v>
+        <v>2.98</v>
       </c>
       <c r="K56">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B57">
-        <v>1.46</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C57">
-        <v>2.99</v>
+        <v>1.27</v>
       </c>
       <c r="D57">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>2.5299999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="F57">
-        <v>2.56</v>
-      </c>
-      <c r="G57" t="s">
-        <v>10</v>
+        <v>0.7</v>
+      </c>
+      <c r="G57">
+        <v>0.17</v>
       </c>
       <c r="H57">
-        <v>2.48</v>
+        <v>1.76</v>
       </c>
       <c r="I57">
-        <v>2.77</v>
+        <v>0.18</v>
       </c>
       <c r="J57">
-        <v>2.59</v>
+        <v>0.33</v>
       </c>
       <c r="K57">
-        <v>0.8</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B58">
+        <v>2.98</v>
+      </c>
+      <c r="C58">
+        <v>2.83</v>
+      </c>
+      <c r="D58">
         <v>2.99</v>
       </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58">
-        <v>1.98</v>
-      </c>
       <c r="E58">
-        <v>1.25</v>
+        <v>2.98</v>
       </c>
       <c r="F58">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="G58">
-        <v>0.9</v>
+        <v>2.98</v>
       </c>
       <c r="H58">
-        <v>1.87</v>
+        <v>2.98</v>
       </c>
       <c r="I58">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="J58">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="K58">
-        <v>2.59</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B59">
-        <v>1.68</v>
+        <v>2.77</v>
       </c>
       <c r="C59">
-        <v>2.73</v>
+        <v>2.88</v>
       </c>
       <c r="D59">
-        <v>0.73</v>
+        <v>2.81</v>
       </c>
       <c r="E59">
-        <v>1.92</v>
+        <v>2.97</v>
       </c>
       <c r="F59">
-        <v>1.95</v>
+        <v>2.99</v>
       </c>
       <c r="G59">
-        <v>1.92</v>
+        <v>2.78</v>
       </c>
       <c r="H59">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="I59">
-        <v>1.08</v>
+        <v>2.88</v>
       </c>
       <c r="J59">
-        <v>2.4500000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="K59">
-        <v>0.55000000000000004</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B60">
-        <v>2.0499999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="C60">
-        <v>1.27</v>
+        <v>2.98</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="E60">
-        <v>0.27</v>
+        <v>1.08</v>
       </c>
       <c r="F60">
-        <v>0.7</v>
+        <v>2.98</v>
       </c>
       <c r="G60">
-        <v>0.17</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H60">
-        <v>1.76</v>
+        <v>0.3</v>
       </c>
       <c r="I60">
-        <v>0.18</v>
+        <v>2.68</v>
       </c>
       <c r="J60">
-        <v>0.33</v>
+        <v>2.72</v>
       </c>
       <c r="K60">
-        <v>2.2799999999999998</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B61">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="C61">
-        <v>2.85</v>
-      </c>
-      <c r="D61">
-        <v>2.85</v>
+        <v>1.84</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>2.98</v>
+        <v>2.61</v>
       </c>
       <c r="F61">
-        <v>2.97</v>
+        <v>2.69</v>
       </c>
       <c r="G61">
-        <v>1.74</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H61">
-        <v>2.64</v>
-      </c>
-      <c r="I61">
-        <v>2.5499999999999998</v>
+        <v>2.63</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
       </c>
       <c r="J61">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="K61">
-        <v>2.78</v>
+        <v>0.47</v>
+      </c>
+      <c r="K61" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B62">
-        <v>2.6</v>
+        <v>1.43</v>
       </c>
       <c r="C62">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="D62">
-        <v>0.03</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
+        <v>2.98</v>
+      </c>
+      <c r="E62">
+        <v>2.41</v>
       </c>
       <c r="F62">
-        <v>2.58</v>
-      </c>
-      <c r="G62" t="s">
-        <v>10</v>
+        <v>2.99</v>
+      </c>
+      <c r="G62">
+        <v>1.61</v>
       </c>
       <c r="H62">
-        <v>1.8</v>
+        <v>2.99</v>
       </c>
       <c r="I62">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="J62">
-        <v>0.33</v>
+        <v>1.54</v>
       </c>
       <c r="K62">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B63">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="C63">
-        <v>2.15</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
+        <v>1.55</v>
+      </c>
+      <c r="D63">
+        <v>1.63</v>
+      </c>
+      <c r="E63">
+        <v>2.4700000000000002</v>
       </c>
       <c r="F63">
+        <v>2.35</v>
+      </c>
+      <c r="G63">
+        <v>1.03</v>
+      </c>
+      <c r="H63">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>1.82</v>
+      </c>
+      <c r="K63">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>92</v>
+      </c>
+      <c r="B64">
+        <v>2.78</v>
+      </c>
+      <c r="C64">
+        <v>2.98</v>
+      </c>
+      <c r="D64">
+        <v>2.7</v>
+      </c>
+      <c r="E64">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F64">
         <v>2.99</v>
       </c>
-      <c r="G63">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H63">
-        <v>1.38</v>
-      </c>
-      <c r="I63">
-        <v>1.58</v>
-      </c>
-      <c r="J63">
-        <v>0.35</v>
-      </c>
-      <c r="K63">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-      <c r="I64" t="s">
-        <v>78</v>
-      </c>
-      <c r="J64" t="s">
-        <v>79</v>
-      </c>
-      <c r="K64" t="s">
-        <v>80</v>
+      <c r="G64">
+        <v>2.98</v>
+      </c>
+      <c r="H64">
+        <v>2.96</v>
+      </c>
+      <c r="I64">
+        <v>2.99</v>
+      </c>
+      <c r="J64">
+        <v>2.98</v>
+      </c>
+      <c r="K64">
+        <v>0.67</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B65">
-        <v>0.8</v>
+        <v>2.72</v>
       </c>
       <c r="C65">
-        <v>1.2</v>
-      </c>
-      <c r="D65" t="s">
-        <v>10</v>
+        <v>2.68</v>
+      </c>
+      <c r="D65">
+        <v>2.4500000000000002</v>
       </c>
       <c r="E65">
-        <v>1.34</v>
+        <v>1.92</v>
       </c>
       <c r="F65">
-        <v>1.62</v>
+        <v>2.58</v>
       </c>
       <c r="G65">
-        <v>0.88</v>
+        <v>2.6</v>
       </c>
       <c r="H65">
-        <v>0.37</v>
+        <v>2.46</v>
       </c>
       <c r="I65">
-        <v>1.57</v>
+        <v>2.99</v>
       </c>
       <c r="J65">
-        <v>0.32</v>
-      </c>
-      <c r="K65" t="s">
-        <v>10</v>
+        <v>2.66</v>
+      </c>
+      <c r="K65">
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B66">
-        <v>1.33</v>
+        <v>2.35</v>
       </c>
       <c r="C66">
-        <v>1.17</v>
+        <v>2.04</v>
       </c>
       <c r="D66">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="E66">
-        <v>2.4300000000000002</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F66">
-        <v>2.97</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G66">
-        <v>1.7</v>
+        <v>2.31</v>
       </c>
       <c r="H66">
-        <v>0.77</v>
+        <v>2.98</v>
       </c>
       <c r="I66">
-        <v>2.67</v>
+        <v>2.83</v>
       </c>
       <c r="J66">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="K66">
-        <v>2.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B67">
-        <v>0.38</v>
+        <v>2.75</v>
       </c>
       <c r="C67">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
       <c r="D67">
-        <v>0.98</v>
+        <v>2.98</v>
       </c>
       <c r="E67">
-        <v>0.8</v>
+        <v>2.98</v>
       </c>
       <c r="F67">
-        <v>0.48</v>
+        <v>2.85</v>
       </c>
       <c r="G67">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="H67">
-        <v>0.45</v>
+        <v>2.68</v>
       </c>
       <c r="I67">
-        <v>1.87</v>
+        <v>2.97</v>
       </c>
       <c r="J67">
-        <v>1.42</v>
-      </c>
-      <c r="K67" t="s">
-        <v>10</v>
+        <v>2.38</v>
+      </c>
+      <c r="K67">
+        <v>2.56</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B68">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="C68">
-        <v>1.83</v>
+        <v>2.98</v>
       </c>
       <c r="D68">
-        <v>2.98</v>
+        <v>1.6</v>
       </c>
       <c r="E68">
-        <v>1.26</v>
+        <v>2.78</v>
       </c>
       <c r="F68">
         <v>1.68</v>
       </c>
-      <c r="G68" t="s">
-        <v>10</v>
+      <c r="G68">
+        <v>1.07</v>
       </c>
       <c r="H68">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="I68">
-        <v>1.66</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J68">
-        <v>1.92</v>
+        <v>2.41</v>
       </c>
       <c r="K68">
-        <v>1.76</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69">
-        <v>2.39</v>
+        <v>2.57</v>
       </c>
       <c r="C69">
-        <v>2.97</v>
+        <v>2.85</v>
       </c>
       <c r="D69">
-        <v>2.61</v>
+        <v>2.85</v>
       </c>
       <c r="E69">
-        <v>0.84</v>
+        <v>2.98</v>
       </c>
       <c r="F69">
         <v>2.97</v>
       </c>
       <c r="G69">
-        <v>2.59</v>
+        <v>1.74</v>
       </c>
       <c r="H69">
         <v>2.64</v>
       </c>
       <c r="I69">
-        <v>0.08</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J69">
-        <v>2.52</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="K69">
-        <v>2.39</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B70">
-        <v>1.7</v>
+        <v>2.39</v>
       </c>
       <c r="C70">
-        <v>0.32</v>
+        <v>2.97</v>
       </c>
       <c r="D70">
-        <v>1.01</v>
+        <v>2.61</v>
       </c>
       <c r="E70">
-        <v>2.0099999999999998</v>
+        <v>0.84</v>
       </c>
       <c r="F70">
-        <v>1.49</v>
+        <v>2.97</v>
       </c>
       <c r="G70">
-        <v>2.2000000000000002</v>
+        <v>2.59</v>
       </c>
       <c r="H70">
-        <v>0.9</v>
+        <v>2.64</v>
       </c>
       <c r="I70">
-        <v>2.5499999999999998</v>
+        <v>0.08</v>
       </c>
       <c r="J70">
-        <v>0.56999999999999995</v>
+        <v>2.52</v>
       </c>
       <c r="K70">
-        <v>2.0499999999999998</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B71">
-        <v>1.18</v>
+        <v>2.99</v>
       </c>
       <c r="C71">
+        <v>2.79</v>
+      </c>
+      <c r="D71">
+        <v>2.98</v>
+      </c>
+      <c r="E71">
+        <v>2.98</v>
+      </c>
+      <c r="F71">
+        <v>0.02</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>103</v>
+      </c>
+      <c r="B72">
         <v>2.65</v>
       </c>
-      <c r="D71">
-        <v>0.43</v>
-      </c>
-      <c r="E71">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F71">
-        <v>1.89</v>
-      </c>
-      <c r="G71" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I71">
-        <v>2.84</v>
-      </c>
-      <c r="J71">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K71">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" t="s">
-        <v>83</v>
-      </c>
-      <c r="E72" t="s">
-        <v>84</v>
-      </c>
-      <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" t="s">
-        <v>86</v>
-      </c>
-      <c r="H72" t="s">
-        <v>87</v>
+      <c r="C72">
+        <v>0.92</v>
+      </c>
+      <c r="D72">
+        <v>1.42</v>
+      </c>
+      <c r="E72">
+        <v>1.74</v>
+      </c>
+      <c r="F72">
+        <v>2.77</v>
+      </c>
+      <c r="G72">
+        <v>1.56</v>
+      </c>
+      <c r="H72">
+        <v>1.45</v>
       </c>
       <c r="I72" t="s">
-        <v>88</v>
-      </c>
-      <c r="J72" t="s">
-        <v>89</v>
-      </c>
-      <c r="K72" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2.98</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="B73">
-        <v>2.98</v>
+        <v>2.35</v>
       </c>
       <c r="C73">
-        <v>1.95</v>
+        <v>2.83</v>
       </c>
       <c r="D73">
-        <v>2.98</v>
-      </c>
-      <c r="E73">
-        <v>1.9</v>
-      </c>
-      <c r="F73">
-        <v>2.98</v>
+        <v>2.48</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
       </c>
       <c r="G73">
-        <v>2.77</v>
+        <v>1.92</v>
       </c>
       <c r="H73">
-        <v>2.4</v>
+        <v>1.47</v>
       </c>
       <c r="I73">
-        <v>2.76</v>
+        <v>1.86</v>
       </c>
       <c r="J73">
-        <v>2.54</v>
-      </c>
-      <c r="K73" t="s">
-        <v>10</v>
+        <v>0.36</v>
+      </c>
+      <c r="K73">
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B74">
+        <v>0.43</v>
+      </c>
+      <c r="C74">
+        <v>2.75</v>
+      </c>
+      <c r="D74">
+        <v>2.86</v>
+      </c>
+      <c r="E74">
         <v>2.99</v>
       </c>
-      <c r="C74">
-        <v>2.83</v>
-      </c>
-      <c r="D74">
+      <c r="F74">
+        <v>2.98</v>
+      </c>
+      <c r="G74">
+        <v>2.66</v>
+      </c>
+      <c r="H74">
+        <v>2.98</v>
+      </c>
+      <c r="I74">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J74">
+        <v>2.98</v>
+      </c>
+      <c r="K74">
         <v>2.97</v>
-      </c>
-      <c r="E74">
-        <v>2.98</v>
-      </c>
-      <c r="F74">
-        <v>2.98</v>
-      </c>
-      <c r="G74">
-        <v>2.98</v>
-      </c>
-      <c r="H74">
-        <v>2.98</v>
-      </c>
-      <c r="I74">
-        <v>2.06</v>
-      </c>
-      <c r="J74">
-        <v>2.98</v>
-      </c>
-      <c r="K74">
-        <v>2.98</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B75">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="C75">
-        <v>1.47</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="D75">
-        <v>2.81</v>
+        <v>2.58</v>
       </c>
       <c r="E75">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="F75">
-        <v>2.38</v>
+        <v>2.98</v>
       </c>
       <c r="G75">
         <v>2.98</v>
       </c>
       <c r="H75">
-        <v>2.98</v>
+        <v>2.65</v>
       </c>
       <c r="I75">
-        <v>2.99</v>
+        <v>2.52</v>
       </c>
       <c r="J75">
-        <v>2.17</v>
+        <v>2.98</v>
       </c>
       <c r="K75">
-        <v>2.77</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B76">
-        <v>1.95</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C76">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="D76">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="E76">
-        <v>1.5</v>
+        <v>2.77</v>
       </c>
       <c r="F76">
-        <v>2.98</v>
+        <v>2.15</v>
       </c>
       <c r="G76">
-        <v>2.98</v>
+        <v>2.56</v>
       </c>
       <c r="H76">
-        <v>2.2599999999999998</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I76">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="J76">
-        <v>2.73</v>
+        <v>1.53</v>
       </c>
       <c r="K76">
-        <v>1.83</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B77">
-        <v>2.98</v>
+        <v>2.6</v>
       </c>
       <c r="C77">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="D77">
-        <v>2.99</v>
-      </c>
-      <c r="E77">
-        <v>2.98</v>
+        <v>0.03</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>2.98</v>
-      </c>
-      <c r="G77">
-        <v>2.98</v>
+        <v>2.58</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
       </c>
       <c r="H77">
-        <v>2.98</v>
+        <v>1.8</v>
       </c>
       <c r="I77">
-        <v>2.99</v>
+        <v>2.76</v>
       </c>
       <c r="J77">
-        <v>2.98</v>
+        <v>0.33</v>
       </c>
       <c r="K77">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B78">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="C78">
-        <v>1.62</v>
+        <v>0.32</v>
       </c>
       <c r="D78">
-        <v>2.17</v>
+        <v>1.01</v>
       </c>
       <c r="E78">
-        <v>1.65</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F78">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="G78">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H78">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="I78">
-        <v>1.22</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J78">
-        <v>0.83</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K78">
-        <v>1.74</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B79">
-        <v>2.58</v>
+        <v>1.75</v>
       </c>
       <c r="C79">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="D79">
-        <v>2.64</v>
+        <v>2.17</v>
       </c>
       <c r="E79">
-        <v>2.54</v>
+        <v>1.65</v>
       </c>
       <c r="F79">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="G79" t="s">
-        <v>10</v>
+        <v>1.58</v>
+      </c>
+      <c r="G79">
+        <v>2.6</v>
       </c>
       <c r="H79">
-        <v>2.31</v>
+        <v>1.2</v>
       </c>
       <c r="I79">
-        <v>2.2999999999999998</v>
+        <v>1.22</v>
       </c>
       <c r="J79">
-        <v>2.62</v>
+        <v>0.83</v>
       </c>
       <c r="K79">
-        <v>2.52</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" t="s">
-        <v>93</v>
-      </c>
-      <c r="E80" t="s">
-        <v>94</v>
-      </c>
-      <c r="F80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s">
-        <v>95</v>
-      </c>
-      <c r="H80" t="s">
-        <v>96</v>
+      <c r="A80">
+        <v>111</v>
+      </c>
+      <c r="B80">
+        <v>1.78</v>
+      </c>
+      <c r="C80">
+        <v>1.75</v>
+      </c>
+      <c r="D80">
+        <v>1.66</v>
+      </c>
+      <c r="E80">
+        <v>2.33</v>
+      </c>
+      <c r="F80">
+        <v>0.97</v>
+      </c>
+      <c r="G80">
+        <v>2.72</v>
+      </c>
+      <c r="H80">
+        <v>2.29</v>
       </c>
       <c r="I80" t="s">
-        <v>97</v>
-      </c>
-      <c r="J80" t="s">
-        <v>98</v>
-      </c>
-      <c r="K80" t="s">
-        <v>99</v>
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>0.93</v>
+      </c>
+      <c r="K80">
+        <v>2.72</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="B81">
-        <v>1.1100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="C81">
-        <v>0.37</v>
+        <v>1.02</v>
       </c>
       <c r="D81">
-        <v>0.2</v>
+        <v>0.72</v>
       </c>
       <c r="E81">
-        <v>2.75</v>
+        <v>1.42</v>
       </c>
       <c r="F81">
-        <v>1.63</v>
+        <v>0.47</v>
       </c>
       <c r="G81">
-        <v>2.44</v>
+        <v>0.77</v>
       </c>
       <c r="H81">
-        <v>1.47</v>
-      </c>
-      <c r="I81" t="s">
-        <v>10</v>
+        <v>0.17</v>
+      </c>
+      <c r="I81">
+        <v>0.64</v>
       </c>
       <c r="J81">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="K81">
-        <v>2.99</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>51</v>
-      </c>
-      <c r="B82">
-        <v>2.99</v>
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>2.98</v>
+        <v>0.92</v>
       </c>
       <c r="D82">
-        <v>2.6</v>
-      </c>
-      <c r="E82">
-        <v>2.5</v>
+        <v>1.25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
       </c>
       <c r="F82">
-        <v>2.98</v>
+        <v>0.35</v>
       </c>
       <c r="G82">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="H82">
-        <v>2.62</v>
-      </c>
-      <c r="I82">
-        <v>2.3199999999999998</v>
+        <v>0.1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
       </c>
       <c r="J82">
-        <v>2.8</v>
+        <v>2.13</v>
       </c>
       <c r="K82">
-        <v>2.5299999999999998</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="B83">
         <v>2.97</v>
       </c>
       <c r="C83">
-        <v>2.97</v>
-      </c>
-      <c r="D83">
-        <v>2.67</v>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>2.98</v>
+        <v>0.48</v>
       </c>
       <c r="F83">
-        <v>1.05</v>
+        <v>2.61</v>
       </c>
       <c r="G83">
-        <v>2.99</v>
+        <v>0.95</v>
       </c>
       <c r="H83">
-        <v>2.8</v>
+        <v>2.37</v>
       </c>
       <c r="I83">
-        <v>2.62</v>
+        <v>0.8</v>
       </c>
       <c r="J83">
-        <v>2.4700000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="K83">
-        <v>2.98</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="B84">
-        <v>2.0299999999999998</v>
+        <v>1.04</v>
       </c>
       <c r="C84">
         <v>1.04</v>
       </c>
       <c r="D84">
-        <v>1.35</v>
-      </c>
-      <c r="E84">
-        <v>2.98</v>
+        <v>0.02</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
       </c>
       <c r="F84">
-        <v>1.44</v>
+        <v>2.77</v>
       </c>
       <c r="G84">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="H84">
-        <v>1.67</v>
-      </c>
-      <c r="I84">
-        <v>1.97</v>
-      </c>
-      <c r="J84">
-        <v>2.48</v>
-      </c>
-      <c r="K84">
-        <v>2.98</v>
+        <v>2.63</v>
+      </c>
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" t="s">
+        <v>10</v>
+      </c>
+      <c r="K84" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="B85">
-        <v>1.18</v>
+        <v>2.98</v>
       </c>
       <c r="C85">
-        <v>0.05</v>
+        <v>2.68</v>
       </c>
       <c r="D85">
-        <v>0.8</v>
+        <v>2.98</v>
       </c>
       <c r="E85">
-        <v>1.49</v>
+        <v>2.52</v>
       </c>
       <c r="F85">
-        <v>0.7</v>
+        <v>2.97</v>
       </c>
       <c r="G85">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>2.79</v>
       </c>
       <c r="I85">
-        <v>1.78</v>
+        <v>2.85</v>
       </c>
       <c r="J85">
-        <v>2.13</v>
+        <v>2.99</v>
       </c>
       <c r="K85">
-        <v>2.44</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B86">
         <v>2.77</v>
       </c>
       <c r="C86">
-        <v>2.88</v>
+        <v>0.94</v>
       </c>
       <c r="D86">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="E86">
+        <v>1.43</v>
+      </c>
+      <c r="F86">
         <v>2.97</v>
       </c>
-      <c r="F86">
-        <v>2.99</v>
-      </c>
       <c r="G86">
-        <v>2.78</v>
+        <v>1.35</v>
       </c>
       <c r="H86">
-        <v>2.68</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I86">
-        <v>2.88</v>
+        <v>1.42</v>
       </c>
       <c r="J86">
-        <v>2.19</v>
+        <v>2.98</v>
       </c>
       <c r="K86">
-        <v>2.97</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B87">
-        <v>1.78</v>
+        <v>0.97</v>
       </c>
       <c r="C87">
-        <v>1.75</v>
+        <v>2.71</v>
       </c>
       <c r="D87">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="E87">
-        <v>2.33</v>
+        <v>2.83</v>
       </c>
       <c r="F87">
-        <v>0.97</v>
-      </c>
-      <c r="G87">
-        <v>2.72</v>
+        <v>2.66</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
       </c>
       <c r="H87">
-        <v>2.29</v>
-      </c>
-      <c r="I87" t="s">
-        <v>10</v>
+        <v>2.31</v>
+      </c>
+      <c r="I87">
+        <v>1.3</v>
       </c>
       <c r="J87">
-        <v>0.93</v>
+        <v>2.98</v>
       </c>
       <c r="K87">
-        <v>2.72</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>123</v>
-      </c>
-      <c r="B88">
-        <v>1.1399999999999999</v>
+        <v>119</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>2.12</v>
-      </c>
-      <c r="D88">
-        <v>2.5</v>
-      </c>
-      <c r="E88">
-        <v>2.82</v>
-      </c>
-      <c r="F88">
-        <v>1.69</v>
-      </c>
-      <c r="G88">
-        <v>2.66</v>
+        <v>0.6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>2.4700000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="I88">
-        <v>1.53</v>
-      </c>
-      <c r="J88">
-        <v>2.19</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J88" t="s">
+        <v>10</v>
       </c>
       <c r="K88">
-        <v>2.84</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" t="s">
-        <v>101</v>
+      <c r="A89">
+        <v>120</v>
+      </c>
+      <c r="B89">
+        <v>1.98</v>
+      </c>
+      <c r="C89">
+        <v>2.15</v>
       </c>
       <c r="D89" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>103</v>
-      </c>
-      <c r="F89" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" t="s">
-        <v>105</v>
-      </c>
-      <c r="H89" t="s">
-        <v>106</v>
-      </c>
-      <c r="I89" t="s">
-        <v>107</v>
-      </c>
-      <c r="J89" t="s">
-        <v>108</v>
-      </c>
-      <c r="K89" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>2.99</v>
+      </c>
+      <c r="G89">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H89">
+        <v>1.38</v>
+      </c>
+      <c r="I89">
+        <v>1.58</v>
+      </c>
+      <c r="J89">
+        <v>0.35</v>
+      </c>
+      <c r="K89">
+        <v>1.71</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B90">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="C90">
-        <v>2.42</v>
+        <v>2.65</v>
       </c>
       <c r="D90">
-        <v>2.2000000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="E90">
-        <v>1.63</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F90">
-        <v>2.04</v>
-      </c>
-      <c r="G90">
-        <v>1.96</v>
+        <v>1.89</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
       </c>
       <c r="H90">
-        <v>1.73</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I90">
-        <v>2.46</v>
+        <v>2.84</v>
       </c>
       <c r="J90">
-        <v>1.73</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K90">
-        <v>1.2</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>52</v>
-      </c>
-      <c r="B91" t="s">
-        <v>10</v>
+        <v>122</v>
+      </c>
+      <c r="B91">
+        <v>2.58</v>
       </c>
       <c r="C91">
-        <v>2.2599999999999998</v>
+        <v>1.34</v>
       </c>
       <c r="D91">
-        <v>2.98</v>
+        <v>2.64</v>
       </c>
       <c r="E91">
-        <v>2.65</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91">
-        <v>1.28</v>
+        <v>2.54</v>
+      </c>
+      <c r="F91">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
       </c>
       <c r="H91">
-        <v>1.87</v>
+        <v>2.31</v>
       </c>
       <c r="I91">
-        <v>0.95</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J91">
-        <v>1.34</v>
+        <v>2.62</v>
       </c>
       <c r="K91">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B92">
-        <v>2.8</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C92">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="D92">
-        <v>2.2400000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="E92">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="F92">
-        <v>2.99</v>
+        <v>1.69</v>
       </c>
       <c r="G92">
-        <v>2.71</v>
+        <v>2.66</v>
       </c>
       <c r="H92">
-        <v>2.97</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I92">
-        <v>2.87</v>
+        <v>1.53</v>
       </c>
       <c r="J92">
-        <v>2.77</v>
+        <v>2.19</v>
       </c>
       <c r="K92">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B93">
-        <v>1.41</v>
+        <v>0.7</v>
       </c>
       <c r="C93">
-        <v>0.78</v>
+        <v>2.67</v>
       </c>
       <c r="D93">
+        <v>2.81</v>
+      </c>
+      <c r="E93">
+        <v>2.59</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>2.73</v>
+      </c>
+      <c r="H93">
         <v>1.84</v>
       </c>
-      <c r="E93">
-        <v>2.33</v>
-      </c>
-      <c r="F93">
-        <v>1.92</v>
-      </c>
-      <c r="G93">
-        <v>1.55</v>
-      </c>
-      <c r="H93">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I93">
-        <v>1.4</v>
+      <c r="I93" t="s">
+        <v>10</v>
       </c>
       <c r="J93">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="K93">
-        <v>2.29</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B94">
-        <v>0.22</v>
+        <v>2.96</v>
       </c>
       <c r="C94">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="D94">
-        <v>1.37</v>
+        <v>2.25</v>
       </c>
       <c r="E94">
-        <v>1.08</v>
+        <v>2.1</v>
       </c>
       <c r="F94">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G94">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="H94">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="I94">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="J94">
-        <v>2.72</v>
+        <v>2.29</v>
       </c>
       <c r="K94">
-        <v>1.41</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B95">
-        <v>2.99</v>
+        <v>2.86</v>
       </c>
       <c r="C95">
-        <v>2.79</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D95">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="E95">
-        <v>2.98</v>
+        <v>1.46</v>
       </c>
       <c r="F95">
-        <v>0.02</v>
-      </c>
-      <c r="G95" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" t="s">
-        <v>10</v>
-      </c>
-      <c r="J95" t="s">
-        <v>10</v>
+        <v>2.97</v>
+      </c>
+      <c r="G95">
+        <v>2.83</v>
+      </c>
+      <c r="H95">
+        <v>2.62</v>
+      </c>
+      <c r="I95">
+        <v>2.97</v>
+      </c>
+      <c r="J95">
+        <v>1.5</v>
       </c>
       <c r="K95">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>112</v>
-      </c>
-      <c r="B96">
-        <v>0.93</v>
+        <v>129</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>1.02</v>
-      </c>
-      <c r="D96">
-        <v>0.72</v>
-      </c>
-      <c r="E96">
-        <v>1.42</v>
-      </c>
-      <c r="F96">
-        <v>0.47</v>
+        <v>2.29</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
       </c>
       <c r="G96">
-        <v>0.77</v>
+        <v>2.17</v>
       </c>
       <c r="H96">
-        <v>0.17</v>
+        <v>2.58</v>
       </c>
       <c r="I96">
-        <v>0.64</v>
+        <v>1.8</v>
       </c>
       <c r="J96">
-        <v>1.17</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K96">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B97">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="C97">
+        <v>1.61</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>0.67</v>
+      </c>
+      <c r="G97">
+        <v>0.82</v>
+      </c>
+      <c r="H97">
+        <v>1.08</v>
+      </c>
+      <c r="I97">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J97">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K97">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>131</v>
+      </c>
+      <c r="B98">
+        <v>2.54</v>
+      </c>
+      <c r="C98">
         <v>2.67</v>
       </c>
-      <c r="D97">
-        <v>2.81</v>
-      </c>
-      <c r="E97">
-        <v>2.59</v>
-      </c>
-      <c r="F97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97">
-        <v>2.73</v>
-      </c>
-      <c r="H97">
-        <v>1.84</v>
-      </c>
-      <c r="I97" t="s">
-        <v>10</v>
-      </c>
-      <c r="J97">
-        <v>2.99</v>
-      </c>
-      <c r="K97">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>110</v>
-      </c>
-      <c r="C98" t="s">
-        <v>111</v>
-      </c>
-      <c r="D98" t="s">
-        <v>112</v>
-      </c>
-      <c r="E98" t="s">
-        <v>113</v>
-      </c>
-      <c r="F98" t="s">
-        <v>114</v>
-      </c>
-      <c r="G98" t="s">
-        <v>115</v>
-      </c>
-      <c r="H98" t="s">
-        <v>116</v>
-      </c>
-      <c r="I98" t="s">
-        <v>117</v>
-      </c>
-      <c r="J98" t="s">
-        <v>118</v>
-      </c>
-      <c r="K98" t="s">
-        <v>119</v>
+      <c r="D98">
+        <v>2.71</v>
+      </c>
+      <c r="E98">
+        <v>2.98</v>
+      </c>
+      <c r="F98">
+        <v>2.58</v>
+      </c>
+      <c r="G98">
+        <v>2.19</v>
+      </c>
+      <c r="H98">
+        <v>1.85</v>
+      </c>
+      <c r="I98">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J98">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K98">
+        <v>2.34</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="B99">
-        <v>2.4700000000000002</v>
+        <v>2.78</v>
       </c>
       <c r="C99">
-        <v>2.5499999999999998</v>
+        <v>2.86</v>
       </c>
       <c r="D99">
-        <v>1.78</v>
-      </c>
-      <c r="E99">
-        <v>2.98</v>
+        <v>2.44</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
       </c>
       <c r="F99">
-        <v>0.53</v>
+        <v>2.81</v>
       </c>
       <c r="G99">
-        <v>1.61</v>
+        <v>2.84</v>
       </c>
       <c r="H99">
-        <v>1.24</v>
+        <v>2.97</v>
       </c>
       <c r="I99">
-        <v>0.53</v>
+        <v>2.98</v>
       </c>
       <c r="J99">
-        <v>0.98</v>
+        <v>1.83</v>
       </c>
       <c r="K99">
-        <v>2.48</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="B100">
-        <v>0.52</v>
+        <v>0.69</v>
       </c>
       <c r="C100">
-        <v>0.27</v>
+        <v>2.97</v>
       </c>
       <c r="D100">
-        <v>1.57</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E100">
-        <v>1.04</v>
-      </c>
-      <c r="F100" t="s">
-        <v>10</v>
+        <v>2.35</v>
+      </c>
+      <c r="F100">
+        <v>1.69</v>
       </c>
       <c r="G100">
-        <v>1.02</v>
+        <v>2.83</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I100">
-        <v>1.1499999999999999</v>
+        <v>2.68</v>
       </c>
       <c r="J100">
-        <v>1.25</v>
-      </c>
-      <c r="K100">
-        <v>1.21</v>
+        <v>2.97</v>
+      </c>
+      <c r="K100" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B101">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="C101">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="D101">
-        <v>1.67</v>
+        <v>2.83</v>
       </c>
       <c r="E101">
-        <v>2.27</v>
-      </c>
-      <c r="F101">
-        <v>1.68</v>
-      </c>
-      <c r="G101">
-        <v>0.15</v>
+        <v>2.77</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>10</v>
       </c>
       <c r="H101">
-        <v>2.98</v>
+        <v>2.56</v>
       </c>
       <c r="I101">
-        <v>2.6</v>
-      </c>
-      <c r="J101" t="s">
-        <v>10</v>
+        <v>1.62</v>
+      </c>
+      <c r="J101">
+        <v>2.97</v>
       </c>
       <c r="K101">
-        <v>2.35</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="B102">
-        <v>2.98</v>
+        <v>1.88</v>
       </c>
       <c r="C102">
-        <v>1.91</v>
+        <v>2.56</v>
       </c>
       <c r="D102">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="E102">
-        <v>1.1000000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="F102">
-        <v>1.67</v>
-      </c>
-      <c r="G102" t="s">
-        <v>10</v>
+        <v>1.83</v>
+      </c>
+      <c r="G102">
+        <v>2.41</v>
       </c>
       <c r="H102">
-        <v>0.97</v>
+        <v>2.41</v>
       </c>
       <c r="I102">
-        <v>1.75</v>
-      </c>
-      <c r="J102" t="s">
-        <v>10</v>
+        <v>0.66</v>
+      </c>
+      <c r="J102">
+        <v>2.65</v>
       </c>
       <c r="K102">
-        <v>2.0099999999999998</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="B103">
-        <v>2.54</v>
-      </c>
-      <c r="C103">
-        <v>1.84</v>
+        <v>1.21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
       </c>
-      <c r="E103">
-        <v>2.61</v>
+      <c r="E103" t="s">
+        <v>10</v>
       </c>
       <c r="F103">
-        <v>2.69</v>
+        <v>0.15</v>
       </c>
       <c r="G103">
-        <v>2.2799999999999998</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H103">
-        <v>2.63</v>
-      </c>
-      <c r="I103" t="s">
-        <v>10</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I103">
+        <v>0.8</v>
       </c>
       <c r="J103">
-        <v>0.47</v>
-      </c>
-      <c r="K103" t="s">
-        <v>10</v>
+        <v>0.45</v>
+      </c>
+      <c r="K103">
+        <v>0.92</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>113</v>
-      </c>
-      <c r="B104" t="s">
-        <v>10</v>
+        <v>138</v>
+      </c>
+      <c r="B104">
+        <v>1.27</v>
       </c>
       <c r="C104">
-        <v>0.92</v>
+        <v>2.98</v>
       </c>
       <c r="D104">
-        <v>1.25</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
+        <v>2.79</v>
+      </c>
+      <c r="E104">
+        <v>2.96</v>
       </c>
       <c r="F104">
-        <v>0.35</v>
+        <v>2.83</v>
       </c>
       <c r="G104">
-        <v>0.1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" t="s">
-        <v>10</v>
+        <v>2.25</v>
+      </c>
+      <c r="H104">
+        <v>2.95</v>
+      </c>
+      <c r="I104">
+        <v>2.98</v>
       </c>
       <c r="J104">
-        <v>2.13</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K104">
-        <v>0.47</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s">
-        <v>3</v>
-      </c>
-      <c r="F105" t="s">
-        <v>4</v>
-      </c>
-      <c r="G105" t="s">
-        <v>5</v>
-      </c>
-      <c r="H105" t="s">
-        <v>6</v>
-      </c>
-      <c r="I105" t="s">
-        <v>7</v>
-      </c>
-      <c r="J105" t="s">
-        <v>8</v>
-      </c>
-      <c r="K105" t="s">
-        <v>9</v>
+      <c r="A105">
+        <v>139</v>
+      </c>
+      <c r="B105">
+        <v>2.86</v>
+      </c>
+      <c r="C105">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D105">
+        <v>2.98</v>
+      </c>
+      <c r="E105">
+        <v>2.41</v>
+      </c>
+      <c r="F105">
+        <v>2.98</v>
+      </c>
+      <c r="G105">
+        <v>2.97</v>
+      </c>
+      <c r="H105">
+        <v>2.54</v>
+      </c>
+      <c r="I105">
+        <v>1.85</v>
+      </c>
+      <c r="J105">
+        <v>2.98</v>
+      </c>
+      <c r="K105">
+        <v>2.98</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B106">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="C106">
         <v>2.97</v>
       </c>
       <c r="D106">
-        <v>2.25</v>
+        <v>0.9</v>
       </c>
       <c r="E106">
-        <v>2.1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F106">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G106">
-        <v>2.68</v>
+        <v>1.95</v>
       </c>
       <c r="H106">
-        <v>2.4</v>
+        <v>1.64</v>
       </c>
       <c r="I106">
-        <v>2.75</v>
+        <v>1.17</v>
       </c>
       <c r="J106">
-        <v>2.29</v>
+        <v>2.64</v>
       </c>
       <c r="K106">
-        <v>2.3199999999999998</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>21</v>
-      </c>
-      <c r="C107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" t="s">
-        <v>24</v>
-      </c>
-      <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" t="s">
-        <v>27</v>
-      </c>
-      <c r="I107" t="s">
-        <v>28</v>
-      </c>
-      <c r="J107" t="s">
-        <v>29</v>
-      </c>
-      <c r="K107" t="s">
-        <v>30</v>
+      <c r="A107">
+        <v>142</v>
+      </c>
+      <c r="B107">
+        <v>1.4</v>
+      </c>
+      <c r="C107">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D107">
+        <v>0.69</v>
+      </c>
+      <c r="E107">
+        <v>1.35</v>
+      </c>
+      <c r="F107">
+        <v>1.24</v>
+      </c>
+      <c r="G107">
+        <v>0.7</v>
+      </c>
+      <c r="H107">
+        <v>1.62</v>
+      </c>
+      <c r="I107">
+        <v>2.98</v>
+      </c>
+      <c r="J107">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K107">
+        <v>0.88</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B108">
-        <v>2.86</v>
+        <v>1.36</v>
       </c>
       <c r="C108">
-        <v>1.0900000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D108">
-        <v>2.97</v>
+        <v>2.68</v>
       </c>
       <c r="E108">
-        <v>1.46</v>
+        <v>0.13</v>
       </c>
       <c r="F108">
-        <v>2.97</v>
-      </c>
-      <c r="G108">
-        <v>2.83</v>
-      </c>
-      <c r="H108">
-        <v>2.62</v>
-      </c>
-      <c r="I108">
-        <v>2.97</v>
+        <v>2.4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" t="s">
+        <v>10</v>
       </c>
       <c r="J108">
-        <v>1.5</v>
+        <v>2.61</v>
       </c>
       <c r="K108">
-        <v>2.83</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>31</v>
-      </c>
-      <c r="C109" t="s">
-        <v>32</v>
-      </c>
-      <c r="D109" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" t="s">
-        <v>34</v>
-      </c>
-      <c r="F109" t="s">
-        <v>35</v>
-      </c>
-      <c r="G109" t="s">
-        <v>36</v>
-      </c>
-      <c r="H109" t="s">
-        <v>37</v>
-      </c>
-      <c r="I109" t="s">
-        <v>38</v>
+      <c r="A109">
+        <v>144</v>
+      </c>
+      <c r="B109">
+        <v>0.75</v>
+      </c>
+      <c r="C109">
+        <v>0.48</v>
+      </c>
+      <c r="D109">
+        <v>0.27</v>
+      </c>
+      <c r="E109">
+        <v>1.23</v>
+      </c>
+      <c r="F109">
+        <v>0.32</v>
+      </c>
+      <c r="G109">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H109">
+        <v>0.88</v>
+      </c>
+      <c r="I109">
+        <v>0.6</v>
       </c>
       <c r="J109" t="s">
-        <v>39</v>
-      </c>
-      <c r="K109" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="K109">
+        <v>1.3</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>129</v>
-      </c>
-      <c r="B110" t="s">
-        <v>10</v>
+        <v>145</v>
+      </c>
+      <c r="B110">
+        <v>2.82</v>
       </c>
       <c r="C110">
-        <v>2.29</v>
-      </c>
-      <c r="D110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" t="s">
-        <v>10</v>
+        <v>2.8</v>
+      </c>
+      <c r="D110">
+        <v>1.32</v>
+      </c>
+      <c r="E110">
+        <v>2.99</v>
+      </c>
+      <c r="F110">
+        <v>1.89</v>
       </c>
       <c r="G110">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="H110">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="I110">
-        <v>1.8</v>
+        <v>2.98</v>
       </c>
       <c r="J110">
-        <v>7.0000000000000007E-2</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="K110">
-        <v>7.0000000000000007E-2</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>41</v>
-      </c>
-      <c r="C111" t="s">
-        <v>42</v>
-      </c>
-      <c r="D111" t="s">
-        <v>43</v>
-      </c>
-      <c r="E111" t="s">
-        <v>44</v>
-      </c>
-      <c r="F111" t="s">
-        <v>45</v>
-      </c>
-      <c r="G111" t="s">
-        <v>46</v>
-      </c>
-      <c r="H111" t="s">
-        <v>47</v>
-      </c>
-      <c r="I111" t="s">
-        <v>48</v>
-      </c>
-      <c r="J111" t="s">
-        <v>49</v>
-      </c>
-      <c r="K111" t="s">
-        <v>50</v>
+      <c r="A111">
+        <v>146</v>
+      </c>
+      <c r="B111">
+        <v>2.8</v>
+      </c>
+      <c r="C111">
+        <v>2.98</v>
+      </c>
+      <c r="D111">
+        <v>2.81</v>
+      </c>
+      <c r="E111">
+        <v>2.99</v>
+      </c>
+      <c r="F111">
+        <v>2.99</v>
+      </c>
+      <c r="G111">
+        <v>2.91</v>
+      </c>
+      <c r="H111">
+        <v>2.98</v>
+      </c>
+      <c r="I111">
+        <v>2.71</v>
+      </c>
+      <c r="J111">
+        <v>2.76</v>
+      </c>
+      <c r="K111">
+        <v>2.76</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B112">
-        <v>0.83</v>
+        <v>2.98</v>
       </c>
       <c r="C112">
-        <v>1.61</v>
-      </c>
-      <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112">
-        <v>0.67</v>
+        <v>2.62</v>
+      </c>
+      <c r="D112">
+        <v>0.49</v>
+      </c>
+      <c r="E112">
+        <v>1.73</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
       </c>
       <c r="G112">
-        <v>0.82</v>
+        <v>2.84</v>
       </c>
       <c r="H112">
-        <v>1.08</v>
+        <v>2.98</v>
       </c>
       <c r="I112">
-        <v>1.1599999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="J112">
-        <v>0.57999999999999996</v>
+        <v>1.93</v>
       </c>
       <c r="K112">
-        <v>0.68</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>51</v>
-      </c>
-      <c r="C113" t="s">
-        <v>52</v>
-      </c>
-      <c r="D113" t="s">
-        <v>53</v>
-      </c>
-      <c r="E113" t="s">
-        <v>54</v>
-      </c>
-      <c r="F113" t="s">
-        <v>55</v>
-      </c>
-      <c r="G113" t="s">
-        <v>56</v>
-      </c>
-      <c r="H113" t="s">
-        <v>57</v>
-      </c>
-      <c r="I113" t="s">
-        <v>58</v>
-      </c>
-      <c r="J113" t="s">
-        <v>59</v>
-      </c>
-      <c r="K113" t="s">
-        <v>60</v>
+      <c r="A113">
+        <v>148</v>
+      </c>
+      <c r="B113">
+        <v>2.98</v>
+      </c>
+      <c r="C113">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D113">
+        <v>2.98</v>
+      </c>
+      <c r="E113">
+        <v>2.98</v>
+      </c>
+      <c r="F113">
+        <v>2.59</v>
+      </c>
+      <c r="G113">
+        <v>2.73</v>
+      </c>
+      <c r="H113">
+        <v>1.23</v>
+      </c>
+      <c r="I113">
+        <v>2.13</v>
+      </c>
+      <c r="J113">
+        <v>1.5</v>
+      </c>
+      <c r="K113">
+        <v>2.69</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B114">
-        <v>2.54</v>
+        <v>2.97</v>
       </c>
       <c r="C114">
-        <v>2.67</v>
+        <v>0.48</v>
       </c>
       <c r="D114">
-        <v>2.71</v>
+        <v>0.18</v>
       </c>
       <c r="E114">
-        <v>2.98</v>
+        <v>2.39</v>
       </c>
       <c r="F114">
-        <v>2.58</v>
-      </c>
-      <c r="G114">
-        <v>2.19</v>
+        <v>1.42</v>
+      </c>
+      <c r="G114" t="s">
+        <v>10</v>
       </c>
       <c r="H114">
-        <v>1.85</v>
+        <v>1.39</v>
       </c>
       <c r="I114">
-        <v>2.2400000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="J114">
-        <v>2.5499999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="K114">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>71</v>
-      </c>
-      <c r="C115" t="s">
-        <v>72</v>
-      </c>
-      <c r="D115" t="s">
-        <v>73</v>
-      </c>
-      <c r="E115" t="s">
-        <v>74</v>
-      </c>
-      <c r="F115" t="s">
-        <v>75</v>
-      </c>
-      <c r="G115" t="s">
-        <v>76</v>
-      </c>
-      <c r="H115" t="s">
-        <v>77</v>
-      </c>
-      <c r="I115" t="s">
-        <v>78</v>
-      </c>
-      <c r="J115" t="s">
-        <v>79</v>
-      </c>
-      <c r="K115" t="s">
-        <v>80</v>
+      <c r="A115">
+        <v>151</v>
+      </c>
+      <c r="B115">
+        <v>1.52</v>
+      </c>
+      <c r="C115">
+        <v>1.68</v>
+      </c>
+      <c r="D115">
+        <v>2.11</v>
+      </c>
+      <c r="E115">
+        <v>1.44</v>
+      </c>
+      <c r="F115">
+        <v>1.94</v>
+      </c>
+      <c r="G115">
+        <v>1.82</v>
+      </c>
+      <c r="H115">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I115">
+        <v>1.3</v>
+      </c>
+      <c r="J115">
+        <v>1.26</v>
+      </c>
+      <c r="K115">
+        <v>0.43</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>133</v>
-      </c>
-      <c r="B116">
-        <v>2.78</v>
+        <v>153</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
       </c>
       <c r="C116">
-        <v>2.86</v>
-      </c>
-      <c r="D116">
-        <v>2.44</v>
+        <v>1.45</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
       </c>
-      <c r="F116">
-        <v>2.81</v>
+      <c r="F116" t="s">
+        <v>10</v>
       </c>
       <c r="G116">
         <v>2.84</v>
       </c>
-      <c r="H116">
-        <v>2.97</v>
+      <c r="H116" t="s">
+        <v>10</v>
       </c>
       <c r="I116">
-        <v>2.98</v>
-      </c>
-      <c r="J116">
-        <v>1.83</v>
-      </c>
-      <c r="K116">
-        <v>2.0499999999999998</v>
+        <v>0.87</v>
+      </c>
+      <c r="J116" t="s">
+        <v>10</v>
+      </c>
+      <c r="K116" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>154</v>
+      </c>
       <c r="B117" t="s">
-        <v>81</v>
-      </c>
-      <c r="C117" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>1.08</v>
       </c>
       <c r="D117" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="H117" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="I117" t="s">
-        <v>88</v>
-      </c>
-      <c r="J117" t="s">
-        <v>89</v>
-      </c>
-      <c r="K117" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="J117">
+        <v>1.89</v>
+      </c>
+      <c r="K117">
+        <v>2.59</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B118">
-        <v>0.69</v>
+        <v>2.52</v>
       </c>
       <c r="C118">
-        <v>2.97</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D118">
-        <v>2.4900000000000002</v>
+        <v>2.98</v>
       </c>
       <c r="E118">
-        <v>2.35</v>
+        <v>0.2</v>
       </c>
       <c r="F118">
-        <v>1.69</v>
-      </c>
-      <c r="G118">
-        <v>2.83</v>
+        <v>2.98</v>
+      </c>
+      <c r="G118" t="s">
+        <v>10</v>
       </c>
       <c r="H118">
-        <v>2.0299999999999998</v>
+        <v>0.84</v>
       </c>
       <c r="I118">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J118">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="K118" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>91</v>
-      </c>
-      <c r="C119" t="s">
-        <v>92</v>
-      </c>
-      <c r="D119" t="s">
-        <v>93</v>
-      </c>
-      <c r="E119" t="s">
-        <v>94</v>
-      </c>
-      <c r="F119" t="s">
-        <v>84</v>
-      </c>
-      <c r="G119" t="s">
-        <v>95</v>
-      </c>
-      <c r="H119" t="s">
-        <v>96</v>
-      </c>
-      <c r="I119" t="s">
-        <v>97</v>
-      </c>
-      <c r="J119" t="s">
-        <v>98</v>
-      </c>
-      <c r="K119" t="s">
-        <v>99</v>
+      <c r="A119">
+        <v>156</v>
+      </c>
+      <c r="B119">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C119">
+        <v>2.82</v>
+      </c>
+      <c r="D119">
+        <v>2.77</v>
+      </c>
+      <c r="E119">
+        <v>2.81</v>
+      </c>
+      <c r="F119">
+        <v>2.99</v>
+      </c>
+      <c r="G119">
+        <v>2.38</v>
+      </c>
+      <c r="H119">
+        <v>2.6</v>
+      </c>
+      <c r="I119">
+        <v>2.36</v>
+      </c>
+      <c r="J119">
+        <v>2.72</v>
+      </c>
+      <c r="K119">
+        <v>1.31</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B120">
-        <v>1.44</v>
+        <v>2.08</v>
       </c>
       <c r="C120">
-        <v>1.5</v>
+        <v>2.69</v>
       </c>
       <c r="D120">
+        <v>2.76</v>
+      </c>
+      <c r="E120">
+        <v>2.98</v>
+      </c>
+      <c r="F120">
+        <v>0.73</v>
+      </c>
+      <c r="G120">
+        <v>2.98</v>
+      </c>
+      <c r="H120">
+        <v>2.97</v>
+      </c>
+      <c r="I120">
+        <v>2.98</v>
+      </c>
+      <c r="J120">
+        <v>2.98</v>
+      </c>
+      <c r="K120">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>158</v>
+      </c>
+      <c r="B121">
+        <v>2.99</v>
+      </c>
+      <c r="C121">
+        <v>0.98</v>
+      </c>
+      <c r="D121">
+        <v>1.19</v>
+      </c>
+      <c r="E121">
+        <v>2.25</v>
+      </c>
+      <c r="F121">
+        <v>0.78</v>
+      </c>
+      <c r="G121">
+        <v>2.39</v>
+      </c>
+      <c r="H121">
+        <v>1.85</v>
+      </c>
+      <c r="I121">
+        <v>2.67</v>
+      </c>
+      <c r="J121">
+        <v>2.98</v>
+      </c>
+      <c r="K121">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>160</v>
+      </c>
+      <c r="B122">
+        <v>0.03</v>
+      </c>
+      <c r="C122">
+        <v>2.98</v>
+      </c>
+      <c r="D122">
+        <v>1.46</v>
+      </c>
+      <c r="E122">
+        <v>2.98</v>
+      </c>
+      <c r="F122">
+        <v>1.32</v>
+      </c>
+      <c r="G122">
+        <v>0.43</v>
+      </c>
+      <c r="H122">
+        <v>1.97</v>
+      </c>
+      <c r="I122">
+        <v>2.71</v>
+      </c>
+      <c r="J122" t="s">
+        <v>10</v>
+      </c>
+      <c r="K122">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>161</v>
+      </c>
+      <c r="B123">
+        <v>1.55</v>
+      </c>
+      <c r="C123">
+        <v>1.4</v>
+      </c>
+      <c r="D123">
+        <v>2.74</v>
+      </c>
+      <c r="E123">
+        <v>2.71</v>
+      </c>
+      <c r="F123">
+        <v>2.97</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123">
+        <v>2.97</v>
+      </c>
+      <c r="I123">
+        <v>2.57</v>
+      </c>
+      <c r="J123" t="s">
+        <v>10</v>
+      </c>
+      <c r="K123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>162</v>
+      </c>
+      <c r="B124">
+        <v>0.1</v>
+      </c>
+      <c r="C124">
+        <v>0.95</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124">
+        <v>1.7</v>
+      </c>
+      <c r="I124">
+        <v>0.78</v>
+      </c>
+      <c r="J124">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>164</v>
+      </c>
+      <c r="B125">
+        <v>0.03</v>
+      </c>
+      <c r="C125">
+        <v>2.76</v>
+      </c>
+      <c r="D125">
+        <v>1.87</v>
+      </c>
+      <c r="E125">
+        <v>0.1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125">
+        <v>0.99</v>
+      </c>
+      <c r="I125">
+        <v>0.8</v>
+      </c>
+      <c r="J125">
+        <v>2.42</v>
+      </c>
+      <c r="K125">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>165</v>
+      </c>
+      <c r="B126">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C126">
+        <v>2.27</v>
+      </c>
+      <c r="D126">
+        <v>0.82</v>
+      </c>
+      <c r="E126">
+        <v>2.81</v>
+      </c>
+      <c r="F126">
+        <v>0.48</v>
+      </c>
+      <c r="G126">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H126">
+        <v>1.55</v>
+      </c>
+      <c r="I126">
+        <v>1.38</v>
+      </c>
+      <c r="J126">
+        <v>1.22</v>
+      </c>
+      <c r="K126">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>166</v>
+      </c>
+      <c r="B127">
+        <v>1.26</v>
+      </c>
+      <c r="C127">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D127">
+        <v>2.74</v>
+      </c>
+      <c r="E127">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F127">
+        <v>1.47</v>
+      </c>
+      <c r="G127">
+        <v>2.35</v>
+      </c>
+      <c r="H127">
+        <v>1.58</v>
+      </c>
+      <c r="I127">
+        <v>1.25</v>
+      </c>
+      <c r="J127">
+        <v>1.4</v>
+      </c>
+      <c r="K127">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>167</v>
+      </c>
+      <c r="B128">
+        <v>2.48</v>
+      </c>
+      <c r="C128">
+        <v>2.97</v>
+      </c>
+      <c r="D128">
+        <v>2.58</v>
+      </c>
+      <c r="E128">
+        <v>1.93</v>
+      </c>
+      <c r="F128">
+        <v>2.98</v>
+      </c>
+      <c r="G128">
+        <v>2.74</v>
+      </c>
+      <c r="H128">
+        <v>2.76</v>
+      </c>
+      <c r="I128">
+        <v>2.67</v>
+      </c>
+      <c r="J128">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K128">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>169</v>
+      </c>
+      <c r="B129">
+        <v>2.99</v>
+      </c>
+      <c r="C129">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D129">
+        <v>0.92</v>
+      </c>
+      <c r="E129">
+        <v>2.98</v>
+      </c>
+      <c r="F129">
+        <v>2.71</v>
+      </c>
+      <c r="G129">
+        <v>2.98</v>
+      </c>
+      <c r="H129">
+        <v>2.98</v>
+      </c>
+      <c r="I129">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J129">
+        <v>2.64</v>
+      </c>
+      <c r="K129">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>170</v>
+      </c>
+      <c r="B130">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C130">
+        <v>1.6</v>
+      </c>
+      <c r="D130">
+        <v>2.35</v>
+      </c>
+      <c r="E130">
+        <v>1.2</v>
+      </c>
+      <c r="F130">
+        <v>2.42</v>
+      </c>
+      <c r="G130" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130">
+        <v>0.92</v>
+      </c>
+      <c r="J130">
+        <v>2.69</v>
+      </c>
+      <c r="K130">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>171</v>
+      </c>
+      <c r="B131">
+        <v>2.97</v>
+      </c>
+      <c r="C131">
+        <v>2.78</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>2.71</v>
+      </c>
+      <c r="F131">
+        <v>2.99</v>
+      </c>
+      <c r="G131" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131">
+        <v>1.55</v>
+      </c>
+      <c r="I131" t="s">
+        <v>10</v>
+      </c>
+      <c r="J131">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>172</v>
+      </c>
+      <c r="B132">
+        <v>2.76</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>2.76</v>
+      </c>
+      <c r="E132">
+        <v>2.76</v>
+      </c>
+      <c r="F132">
+        <v>1.18</v>
+      </c>
+      <c r="G132" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J132" t="s">
+        <v>10</v>
+      </c>
+      <c r="K132">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>173</v>
+      </c>
+      <c r="B133">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C133">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D133">
+        <v>1.57</v>
+      </c>
+      <c r="E133">
+        <v>1.63</v>
+      </c>
+      <c r="F133">
+        <v>0.67</v>
+      </c>
+      <c r="G133">
+        <v>2.97</v>
+      </c>
+      <c r="H133">
+        <v>0.92</v>
+      </c>
+      <c r="I133">
+        <v>1.67</v>
+      </c>
+      <c r="J133">
+        <v>1.38</v>
+      </c>
+      <c r="K133">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>3</v>
+      </c>
+      <c r="F134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s">
+        <v>5</v>
+      </c>
+      <c r="H134" t="s">
+        <v>6</v>
+      </c>
+      <c r="I134" t="s">
+        <v>7</v>
+      </c>
+      <c r="J134" t="s">
+        <v>8</v>
+      </c>
+      <c r="K134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>174</v>
+      </c>
+      <c r="B135">
+        <v>2.38</v>
+      </c>
+      <c r="C135">
+        <v>2.68</v>
+      </c>
+      <c r="D135">
+        <v>2.74</v>
+      </c>
+      <c r="E135">
+        <v>2.98</v>
+      </c>
+      <c r="F135">
+        <v>2.97</v>
+      </c>
+      <c r="G135">
+        <v>2.14</v>
+      </c>
+      <c r="H135">
+        <v>2.82</v>
+      </c>
+      <c r="I135">
+        <v>2.99</v>
+      </c>
+      <c r="J135">
+        <v>2.71</v>
+      </c>
+      <c r="K135">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>175</v>
+      </c>
+      <c r="B136">
+        <v>1.8</v>
+      </c>
+      <c r="C136">
+        <v>2.99</v>
+      </c>
+      <c r="D136">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E136">
+        <v>2.75</v>
+      </c>
+      <c r="F136">
+        <v>2.78</v>
+      </c>
+      <c r="G136">
+        <v>2.97</v>
+      </c>
+      <c r="H136">
+        <v>2.98</v>
+      </c>
+      <c r="I136">
+        <v>2.25</v>
+      </c>
+      <c r="J136">
+        <v>2.7</v>
+      </c>
+      <c r="K136">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>176</v>
+      </c>
+      <c r="B137">
+        <v>2.97</v>
+      </c>
+      <c r="C137">
+        <v>2.98</v>
+      </c>
+      <c r="D137">
+        <v>2.99</v>
+      </c>
+      <c r="E137">
+        <v>2.98</v>
+      </c>
+      <c r="F137">
+        <v>1.38</v>
+      </c>
+      <c r="G137">
+        <v>2.82</v>
+      </c>
+      <c r="H137">
+        <v>2.98</v>
+      </c>
+      <c r="I137">
+        <v>2.98</v>
+      </c>
+      <c r="J137">
+        <v>2.98</v>
+      </c>
+      <c r="K137">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>177</v>
+      </c>
+      <c r="B138">
+        <v>2.98</v>
+      </c>
+      <c r="C138">
+        <v>2.68</v>
+      </c>
+      <c r="D138">
+        <v>2.99</v>
+      </c>
+      <c r="E138">
+        <v>2.99</v>
+      </c>
+      <c r="F138">
+        <v>2.98</v>
+      </c>
+      <c r="G138">
+        <v>2.99</v>
+      </c>
+      <c r="H138">
+        <v>2.69</v>
+      </c>
+      <c r="I138">
+        <v>2.79</v>
+      </c>
+      <c r="J138">
+        <v>2.98</v>
+      </c>
+      <c r="K138">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>178</v>
+      </c>
+      <c r="B139">
+        <v>1.23</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>1.18</v>
+      </c>
+      <c r="G139">
+        <v>1.23</v>
+      </c>
+      <c r="H139">
+        <v>0.72</v>
+      </c>
+      <c r="I139">
+        <v>0.77</v>
+      </c>
+      <c r="J139">
+        <v>0.77</v>
+      </c>
+      <c r="K139">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>180</v>
+      </c>
+      <c r="B140">
+        <v>2.54</v>
+      </c>
+      <c r="C140">
+        <v>2.98</v>
+      </c>
+      <c r="D140">
+        <v>2.98</v>
+      </c>
+      <c r="E140">
+        <v>2.77</v>
+      </c>
+      <c r="F140">
+        <v>2.99</v>
+      </c>
+      <c r="G140">
+        <v>1.06</v>
+      </c>
+      <c r="H140">
+        <v>2.19</v>
+      </c>
+      <c r="I140">
         <v>2.83</v>
       </c>
-      <c r="E120">
-        <v>2.77</v>
-      </c>
-      <c r="F120" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" t="s">
-        <v>10</v>
-      </c>
-      <c r="H120">
-        <v>2.56</v>
-      </c>
-      <c r="I120">
-        <v>1.62</v>
-      </c>
-      <c r="J120">
-        <v>2.97</v>
-      </c>
-      <c r="K120">
-        <v>2.98</v>
+      <c r="J140">
+        <v>2.74</v>
+      </c>
+      <c r="K140">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" t="s">
+        <v>82</v>
+      </c>
+      <c r="D141" t="s">
+        <v>83</v>
+      </c>
+      <c r="E141" t="s">
+        <v>84</v>
+      </c>
+      <c r="F141" t="s">
+        <v>85</v>
+      </c>
+      <c r="G141" t="s">
+        <v>86</v>
+      </c>
+      <c r="H141" t="s">
+        <v>87</v>
+      </c>
+      <c r="I141" t="s">
+        <v>88</v>
+      </c>
+      <c r="J141" t="s">
+        <v>89</v>
+      </c>
+      <c r="K141" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>182</v>
+      </c>
+      <c r="B142">
+        <v>2.7</v>
+      </c>
+      <c r="C142">
+        <v>2.41</v>
+      </c>
+      <c r="D142">
+        <v>1.73</v>
+      </c>
+      <c r="E142">
+        <v>2.65</v>
+      </c>
+      <c r="F142">
+        <v>2.89</v>
+      </c>
+      <c r="G142">
+        <v>2.68</v>
+      </c>
+      <c r="H142">
+        <v>2.44</v>
+      </c>
+      <c r="I142">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J142">
+        <v>2.66</v>
+      </c>
+      <c r="K142">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>183</v>
+      </c>
+      <c r="B143">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C143">
+        <v>0.22</v>
+      </c>
+      <c r="D143">
+        <v>1.9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143">
+        <v>0.77</v>
+      </c>
+      <c r="I143" t="s">
+        <v>10</v>
+      </c>
+      <c r="J143">
+        <v>0.03</v>
+      </c>
+      <c r="K143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" t="s">
+        <v>32</v>
+      </c>
+      <c r="D144" t="s">
+        <v>33</v>
+      </c>
+      <c r="E144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F144" t="s">
+        <v>35</v>
+      </c>
+      <c r="G144" t="s">
+        <v>36</v>
+      </c>
+      <c r="H144" t="s">
+        <v>37</v>
+      </c>
+      <c r="I144" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" t="s">
+        <v>39</v>
+      </c>
+      <c r="K144" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" t="s">
+        <v>43</v>
+      </c>
+      <c r="E145" t="s">
+        <v>44</v>
+      </c>
+      <c r="F145" t="s">
+        <v>45</v>
+      </c>
+      <c r="G145" t="s">
+        <v>46</v>
+      </c>
+      <c r="H145" t="s">
+        <v>47</v>
+      </c>
+      <c r="I145" t="s">
+        <v>48</v>
+      </c>
+      <c r="J145" t="s">
+        <v>49</v>
+      </c>
+      <c r="K145" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146" t="s">
+        <v>63</v>
+      </c>
+      <c r="E146" t="s">
+        <v>64</v>
+      </c>
+      <c r="F146" t="s">
+        <v>65</v>
+      </c>
+      <c r="G146" t="s">
+        <v>66</v>
+      </c>
+      <c r="H146" t="s">
+        <v>67</v>
+      </c>
+      <c r="I146" t="s">
+        <v>68</v>
+      </c>
+      <c r="J146" t="s">
+        <v>69</v>
+      </c>
+      <c r="K146" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>110</v>
+      </c>
+      <c r="C147" t="s">
+        <v>111</v>
+      </c>
+      <c r="D147" t="s">
+        <v>112</v>
+      </c>
+      <c r="E147" t="s">
+        <v>113</v>
+      </c>
+      <c r="F147" t="s">
+        <v>114</v>
+      </c>
+      <c r="G147" t="s">
+        <v>115</v>
+      </c>
+      <c r="H147" t="s">
+        <v>116</v>
+      </c>
+      <c r="I147" t="s">
+        <v>117</v>
+      </c>
+      <c r="J147" t="s">
+        <v>118</v>
+      </c>
+      <c r="K147" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>3</v>
+      </c>
+      <c r="F148" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>5</v>
+      </c>
+      <c r="H148" t="s">
+        <v>6</v>
+      </c>
+      <c r="I148" t="s">
+        <v>7</v>
+      </c>
+      <c r="J148" t="s">
+        <v>8</v>
+      </c>
+      <c r="K148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" t="s">
+        <v>25</v>
+      </c>
+      <c r="G149" t="s">
+        <v>26</v>
+      </c>
+      <c r="H149" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" t="s">
+        <v>28</v>
+      </c>
+      <c r="J149" t="s">
+        <v>29</v>
+      </c>
+      <c r="K149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" t="s">
+        <v>32</v>
+      </c>
+      <c r="D150" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150" t="s">
+        <v>35</v>
+      </c>
+      <c r="G150" t="s">
+        <v>36</v>
+      </c>
+      <c r="H150" t="s">
+        <v>37</v>
+      </c>
+      <c r="I150" t="s">
+        <v>38</v>
+      </c>
+      <c r="J150" t="s">
+        <v>39</v>
+      </c>
+      <c r="K150" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151" t="s">
+        <v>44</v>
+      </c>
+      <c r="F151" t="s">
+        <v>45</v>
+      </c>
+      <c r="G151" t="s">
+        <v>46</v>
+      </c>
+      <c r="H151" t="s">
+        <v>47</v>
+      </c>
+      <c r="I151" t="s">
+        <v>48</v>
+      </c>
+      <c r="J151" t="s">
+        <v>49</v>
+      </c>
+      <c r="K151" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" t="s">
+        <v>52</v>
+      </c>
+      <c r="D152" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" t="s">
+        <v>54</v>
+      </c>
+      <c r="F152" t="s">
+        <v>55</v>
+      </c>
+      <c r="G152" t="s">
+        <v>56</v>
+      </c>
+      <c r="H152" t="s">
+        <v>57</v>
+      </c>
+      <c r="I152" t="s">
+        <v>58</v>
+      </c>
+      <c r="J152" t="s">
+        <v>59</v>
+      </c>
+      <c r="K152" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>71</v>
+      </c>
+      <c r="C153" t="s">
+        <v>72</v>
+      </c>
+      <c r="D153" t="s">
+        <v>73</v>
+      </c>
+      <c r="E153" t="s">
+        <v>74</v>
+      </c>
+      <c r="F153" t="s">
+        <v>75</v>
+      </c>
+      <c r="G153" t="s">
+        <v>76</v>
+      </c>
+      <c r="H153" t="s">
+        <v>77</v>
+      </c>
+      <c r="I153" t="s">
+        <v>78</v>
+      </c>
+      <c r="J153" t="s">
+        <v>79</v>
+      </c>
+      <c r="K153" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" t="s">
+        <v>84</v>
+      </c>
+      <c r="F154" t="s">
+        <v>85</v>
+      </c>
+      <c r="G154" t="s">
+        <v>86</v>
+      </c>
+      <c r="H154" t="s">
+        <v>87</v>
+      </c>
+      <c r="I154" t="s">
+        <v>88</v>
+      </c>
+      <c r="J154" t="s">
+        <v>89</v>
+      </c>
+      <c r="K154" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>91</v>
+      </c>
+      <c r="C155" t="s">
+        <v>92</v>
+      </c>
+      <c r="D155" t="s">
+        <v>93</v>
+      </c>
+      <c r="E155" t="s">
+        <v>94</v>
+      </c>
+      <c r="F155" t="s">
+        <v>84</v>
+      </c>
+      <c r="G155" t="s">
+        <v>95</v>
+      </c>
+      <c r="H155" t="s">
+        <v>96</v>
+      </c>
+      <c r="I155" t="s">
+        <v>97</v>
+      </c>
+      <c r="J155" t="s">
+        <v>98</v>
+      </c>
+      <c r="K155" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>100</v>
+      </c>
+      <c r="C156" t="s">
+        <v>101</v>
+      </c>
+      <c r="D156" t="s">
+        <v>102</v>
+      </c>
+      <c r="E156" t="s">
+        <v>103</v>
+      </c>
+      <c r="F156" t="s">
+        <v>104</v>
+      </c>
+      <c r="G156" t="s">
+        <v>105</v>
+      </c>
+      <c r="H156" t="s">
+        <v>106</v>
+      </c>
+      <c r="I156" t="s">
+        <v>107</v>
+      </c>
+      <c r="J156" t="s">
+        <v>108</v>
+      </c>
+      <c r="K156" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" t="s">
+        <v>16</v>
+      </c>
+      <c r="H157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" t="s">
+        <v>18</v>
+      </c>
+      <c r="J157" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" t="s">
+        <v>32</v>
+      </c>
+      <c r="D158" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" t="s">
+        <v>34</v>
+      </c>
+      <c r="F158" t="s">
+        <v>35</v>
+      </c>
+      <c r="G158" t="s">
+        <v>36</v>
+      </c>
+      <c r="H158" t="s">
+        <v>37</v>
+      </c>
+      <c r="I158" t="s">
+        <v>38</v>
+      </c>
+      <c r="J158" t="s">
+        <v>39</v>
+      </c>
+      <c r="K158" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>3</v>
+      </c>
+      <c r="F159" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" t="s">
+        <v>5</v>
+      </c>
+      <c r="H159" t="s">
+        <v>6</v>
+      </c>
+      <c r="I159" t="s">
+        <v>7</v>
+      </c>
+      <c r="J159" t="s">
+        <v>8</v>
+      </c>
+      <c r="K159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" t="s">
+        <v>52</v>
+      </c>
+      <c r="D160" t="s">
+        <v>53</v>
+      </c>
+      <c r="E160" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160" t="s">
+        <v>55</v>
+      </c>
+      <c r="G160" t="s">
+        <v>56</v>
+      </c>
+      <c r="H160" t="s">
+        <v>57</v>
+      </c>
+      <c r="I160" t="s">
+        <v>58</v>
+      </c>
+      <c r="J160" t="s">
+        <v>59</v>
+      </c>
+      <c r="K160" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>61</v>
+      </c>
+      <c r="C161" t="s">
+        <v>62</v>
+      </c>
+      <c r="D161" t="s">
+        <v>63</v>
+      </c>
+      <c r="E161" t="s">
+        <v>64</v>
+      </c>
+      <c r="F161" t="s">
+        <v>65</v>
+      </c>
+      <c r="G161" t="s">
+        <v>66</v>
+      </c>
+      <c r="H161" t="s">
+        <v>67</v>
+      </c>
+      <c r="I161" t="s">
+        <v>68</v>
+      </c>
+      <c r="J161" t="s">
+        <v>69</v>
+      </c>
+      <c r="K161" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>71</v>
+      </c>
+      <c r="C162" t="s">
+        <v>72</v>
+      </c>
+      <c r="D162" t="s">
+        <v>73</v>
+      </c>
+      <c r="E162" t="s">
+        <v>74</v>
+      </c>
+      <c r="F162" t="s">
+        <v>75</v>
+      </c>
+      <c r="G162" t="s">
+        <v>76</v>
+      </c>
+      <c r="H162" t="s">
+        <v>77</v>
+      </c>
+      <c r="I162" t="s">
+        <v>78</v>
+      </c>
+      <c r="J162" t="s">
+        <v>79</v>
+      </c>
+      <c r="K162" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>81</v>
+      </c>
+      <c r="C163" t="s">
+        <v>82</v>
+      </c>
+      <c r="D163" t="s">
+        <v>83</v>
+      </c>
+      <c r="E163" t="s">
+        <v>84</v>
+      </c>
+      <c r="F163" t="s">
+        <v>85</v>
+      </c>
+      <c r="G163" t="s">
+        <v>86</v>
+      </c>
+      <c r="H163" t="s">
+        <v>87</v>
+      </c>
+      <c r="I163" t="s">
+        <v>88</v>
+      </c>
+      <c r="J163" t="s">
+        <v>89</v>
+      </c>
+      <c r="K163" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>91</v>
+      </c>
+      <c r="C164" t="s">
+        <v>92</v>
+      </c>
+      <c r="D164" t="s">
+        <v>93</v>
+      </c>
+      <c r="E164" t="s">
+        <v>94</v>
+      </c>
+      <c r="F164" t="s">
+        <v>84</v>
+      </c>
+      <c r="G164" t="s">
+        <v>95</v>
+      </c>
+      <c r="H164" t="s">
+        <v>96</v>
+      </c>
+      <c r="I164" t="s">
+        <v>97</v>
+      </c>
+      <c r="J164" t="s">
+        <v>98</v>
+      </c>
+      <c r="K164" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>100</v>
+      </c>
+      <c r="C165" t="s">
+        <v>101</v>
+      </c>
+      <c r="D165" t="s">
+        <v>102</v>
+      </c>
+      <c r="E165" t="s">
+        <v>103</v>
+      </c>
+      <c r="F165" t="s">
+        <v>104</v>
+      </c>
+      <c r="G165" t="s">
+        <v>105</v>
+      </c>
+      <c r="H165" t="s">
+        <v>106</v>
+      </c>
+      <c r="I165" t="s">
+        <v>107</v>
+      </c>
+      <c r="J165" t="s">
+        <v>108</v>
+      </c>
+      <c r="K165" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166" t="s">
+        <v>3</v>
+      </c>
+      <c r="F166" t="s">
+        <v>4</v>
+      </c>
+      <c r="G166" t="s">
+        <v>5</v>
+      </c>
+      <c r="H166" t="s">
+        <v>6</v>
+      </c>
+      <c r="I166" t="s">
+        <v>7</v>
+      </c>
+      <c r="J166" t="s">
+        <v>8</v>
+      </c>
+      <c r="K166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
+        <v>16</v>
+      </c>
+      <c r="H167" t="s">
+        <v>17</v>
+      </c>
+      <c r="I167" t="s">
+        <v>18</v>
+      </c>
+      <c r="J167" t="s">
+        <v>19</v>
+      </c>
+      <c r="K167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" t="s">
+        <v>32</v>
+      </c>
+      <c r="D168" t="s">
+        <v>33</v>
+      </c>
+      <c r="E168" t="s">
+        <v>34</v>
+      </c>
+      <c r="F168" t="s">
+        <v>35</v>
+      </c>
+      <c r="G168" t="s">
+        <v>36</v>
+      </c>
+      <c r="H168" t="s">
+        <v>37</v>
+      </c>
+      <c r="I168" t="s">
+        <v>38</v>
+      </c>
+      <c r="J168" t="s">
+        <v>39</v>
+      </c>
+      <c r="K168" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" t="s">
+        <v>42</v>
+      </c>
+      <c r="D169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E169" t="s">
+        <v>44</v>
+      </c>
+      <c r="F169" t="s">
+        <v>45</v>
+      </c>
+      <c r="G169" t="s">
+        <v>46</v>
+      </c>
+      <c r="H169" t="s">
+        <v>47</v>
+      </c>
+      <c r="I169" t="s">
+        <v>48</v>
+      </c>
+      <c r="J169" t="s">
+        <v>49</v>
+      </c>
+      <c r="K169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" t="s">
+        <v>52</v>
+      </c>
+      <c r="D170" t="s">
+        <v>53</v>
+      </c>
+      <c r="E170" t="s">
+        <v>54</v>
+      </c>
+      <c r="F170" t="s">
+        <v>55</v>
+      </c>
+      <c r="G170" t="s">
+        <v>56</v>
+      </c>
+      <c r="H170" t="s">
+        <v>57</v>
+      </c>
+      <c r="I170" t="s">
+        <v>58</v>
+      </c>
+      <c r="J170" t="s">
+        <v>59</v>
+      </c>
+      <c r="K170" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>61</v>
+      </c>
+      <c r="C171" t="s">
+        <v>62</v>
+      </c>
+      <c r="D171" t="s">
+        <v>63</v>
+      </c>
+      <c r="E171" t="s">
+        <v>64</v>
+      </c>
+      <c r="F171" t="s">
+        <v>65</v>
+      </c>
+      <c r="G171" t="s">
+        <v>66</v>
+      </c>
+      <c r="H171" t="s">
+        <v>67</v>
+      </c>
+      <c r="I171" t="s">
+        <v>68</v>
+      </c>
+      <c r="J171" t="s">
+        <v>69</v>
+      </c>
+      <c r="K171" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>71</v>
+      </c>
+      <c r="C172" t="s">
+        <v>72</v>
+      </c>
+      <c r="D172" t="s">
+        <v>73</v>
+      </c>
+      <c r="E172" t="s">
+        <v>74</v>
+      </c>
+      <c r="F172" t="s">
+        <v>75</v>
+      </c>
+      <c r="G172" t="s">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s">
+        <v>77</v>
+      </c>
+      <c r="I172" t="s">
+        <v>78</v>
+      </c>
+      <c r="J172" t="s">
+        <v>79</v>
+      </c>
+      <c r="K172" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>81</v>
+      </c>
+      <c r="C173" t="s">
+        <v>82</v>
+      </c>
+      <c r="D173" t="s">
+        <v>83</v>
+      </c>
+      <c r="E173" t="s">
+        <v>84</v>
+      </c>
+      <c r="F173" t="s">
+        <v>85</v>
+      </c>
+      <c r="G173" t="s">
+        <v>86</v>
+      </c>
+      <c r="H173" t="s">
+        <v>87</v>
+      </c>
+      <c r="I173" t="s">
+        <v>88</v>
+      </c>
+      <c r="J173" t="s">
+        <v>89</v>
+      </c>
+      <c r="K173" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>110</v>
+      </c>
+      <c r="C174" t="s">
+        <v>111</v>
+      </c>
+      <c r="D174" t="s">
+        <v>112</v>
+      </c>
+      <c r="E174" t="s">
+        <v>113</v>
+      </c>
+      <c r="F174" t="s">
+        <v>114</v>
+      </c>
+      <c r="G174" t="s">
+        <v>115</v>
+      </c>
+      <c r="H174" t="s">
+        <v>116</v>
+      </c>
+      <c r="I174" t="s">
+        <v>117</v>
+      </c>
+      <c r="J174" t="s">
+        <v>118</v>
+      </c>
+      <c r="K174" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2</v>
+      </c>
+      <c r="E175" t="s">
+        <v>3</v>
+      </c>
+      <c r="F175" t="s">
+        <v>4</v>
+      </c>
+      <c r="G175" t="s">
+        <v>5</v>
+      </c>
+      <c r="H175" t="s">
+        <v>6</v>
+      </c>
+      <c r="I175" t="s">
+        <v>7</v>
+      </c>
+      <c r="J175" t="s">
+        <v>8</v>
+      </c>
+      <c r="K175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" t="s">
+        <v>24</v>
+      </c>
+      <c r="F176" t="s">
+        <v>25</v>
+      </c>
+      <c r="G176" t="s">
+        <v>26</v>
+      </c>
+      <c r="H176" t="s">
+        <v>27</v>
+      </c>
+      <c r="I176" t="s">
+        <v>28</v>
+      </c>
+      <c r="J176" t="s">
+        <v>29</v>
+      </c>
+      <c r="K176" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>51</v>
+      </c>
+      <c r="C177" t="s">
+        <v>52</v>
+      </c>
+      <c r="D177" t="s">
+        <v>53</v>
+      </c>
+      <c r="E177" t="s">
+        <v>54</v>
+      </c>
+      <c r="F177" t="s">
+        <v>55</v>
+      </c>
+      <c r="G177" t="s">
+        <v>56</v>
+      </c>
+      <c r="H177" t="s">
+        <v>57</v>
+      </c>
+      <c r="I177" t="s">
+        <v>58</v>
+      </c>
+      <c r="J177" t="s">
+        <v>59</v>
+      </c>
+      <c r="K177" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" t="s">
+        <v>33</v>
+      </c>
+      <c r="E178" t="s">
+        <v>34</v>
+      </c>
+      <c r="F178" t="s">
+        <v>35</v>
+      </c>
+      <c r="G178" t="s">
+        <v>36</v>
+      </c>
+      <c r="H178" t="s">
+        <v>37</v>
+      </c>
+      <c r="I178" t="s">
+        <v>38</v>
+      </c>
+      <c r="J178" t="s">
+        <v>39</v>
+      </c>
+      <c r="K178" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>81</v>
+      </c>
+      <c r="C179" t="s">
+        <v>82</v>
+      </c>
+      <c r="D179" t="s">
+        <v>83</v>
+      </c>
+      <c r="E179" t="s">
+        <v>84</v>
+      </c>
+      <c r="F179" t="s">
+        <v>85</v>
+      </c>
+      <c r="G179" t="s">
+        <v>86</v>
+      </c>
+      <c r="H179" t="s">
+        <v>87</v>
+      </c>
+      <c r="I179" t="s">
+        <v>88</v>
+      </c>
+      <c r="J179" t="s">
+        <v>89</v>
+      </c>
+      <c r="K179" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" t="s">
+        <v>42</v>
+      </c>
+      <c r="D180" t="s">
+        <v>43</v>
+      </c>
+      <c r="E180" t="s">
+        <v>44</v>
+      </c>
+      <c r="F180" t="s">
+        <v>45</v>
+      </c>
+      <c r="G180" t="s">
+        <v>46</v>
+      </c>
+      <c r="H180" t="s">
+        <v>47</v>
+      </c>
+      <c r="I180" t="s">
+        <v>48</v>
+      </c>
+      <c r="J180" t="s">
+        <v>49</v>
+      </c>
+      <c r="K180" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>91</v>
+      </c>
+      <c r="C181" t="s">
+        <v>92</v>
+      </c>
+      <c r="D181" t="s">
+        <v>93</v>
+      </c>
+      <c r="E181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F181" t="s">
+        <v>95</v>
+      </c>
+      <c r="G181" t="s">
+        <v>96</v>
+      </c>
+      <c r="H181" t="s">
+        <v>97</v>
+      </c>
+      <c r="I181" t="s">
+        <v>98</v>
+      </c>
+      <c r="J181" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>71</v>
+      </c>
+      <c r="C182" t="s">
+        <v>72</v>
+      </c>
+      <c r="D182" t="s">
+        <v>73</v>
+      </c>
+      <c r="E182" t="s">
+        <v>74</v>
+      </c>
+      <c r="F182" t="s">
+        <v>75</v>
+      </c>
+      <c r="G182" t="s">
+        <v>76</v>
+      </c>
+      <c r="H182" t="s">
+        <v>77</v>
+      </c>
+      <c r="I182" t="s">
+        <v>78</v>
+      </c>
+      <c r="J182" t="s">
+        <v>79</v>
+      </c>
+      <c r="K182" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>110</v>
+      </c>
+      <c r="C183" t="s">
+        <v>111</v>
+      </c>
+      <c r="D183" t="s">
+        <v>112</v>
+      </c>
+      <c r="E183" t="s">
+        <v>113</v>
+      </c>
+      <c r="F183" t="s">
+        <v>114</v>
+      </c>
+      <c r="G183" t="s">
+        <v>115</v>
+      </c>
+      <c r="H183" t="s">
+        <v>116</v>
+      </c>
+      <c r="I183" t="s">
+        <v>117</v>
+      </c>
+      <c r="J183" t="s">
+        <v>118</v>
+      </c>
+      <c r="K183" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>100</v>
+      </c>
+      <c r="C184" t="s">
+        <v>101</v>
+      </c>
+      <c r="D184" t="s">
+        <v>102</v>
+      </c>
+      <c r="E184" t="s">
+        <v>103</v>
+      </c>
+      <c r="F184" t="s">
+        <v>104</v>
+      </c>
+      <c r="G184" t="s">
+        <v>105</v>
+      </c>
+      <c r="H184" t="s">
+        <v>106</v>
+      </c>
+      <c r="I184" t="s">
+        <v>107</v>
+      </c>
+      <c r="J184" t="s">
+        <v>108</v>
+      </c>
+      <c r="K184" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>110</v>
+      </c>
+      <c r="C185" t="s">
+        <v>111</v>
+      </c>
+      <c r="D185" t="s">
+        <v>112</v>
+      </c>
+      <c r="E185" t="s">
+        <v>113</v>
+      </c>
+      <c r="F185" t="s">
+        <v>114</v>
+      </c>
+      <c r="G185" t="s">
+        <v>115</v>
+      </c>
+      <c r="H185" t="s">
+        <v>116</v>
+      </c>
+      <c r="I185" t="s">
+        <v>117</v>
+      </c>
+      <c r="J185" t="s">
+        <v>118</v>
+      </c>
+      <c r="K185" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" t="s">
+        <v>3</v>
+      </c>
+      <c r="F186" t="s">
+        <v>4</v>
+      </c>
+      <c r="G186" t="s">
+        <v>5</v>
+      </c>
+      <c r="H186" t="s">
+        <v>6</v>
+      </c>
+      <c r="I186" t="s">
+        <v>7</v>
+      </c>
+      <c r="J186" t="s">
+        <v>8</v>
+      </c>
+      <c r="K186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>100</v>
+      </c>
+      <c r="C187" t="s">
+        <v>101</v>
+      </c>
+      <c r="D187" t="s">
+        <v>102</v>
+      </c>
+      <c r="E187" t="s">
+        <v>103</v>
+      </c>
+      <c r="F187" t="s">
+        <v>104</v>
+      </c>
+      <c r="G187" t="s">
+        <v>105</v>
+      </c>
+      <c r="H187" t="s">
+        <v>106</v>
+      </c>
+      <c r="I187" t="s">
+        <v>107</v>
+      </c>
+      <c r="J187" t="s">
+        <v>108</v>
+      </c>
+      <c r="K187" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A135:K145">
+    <sortCondition ref="A135:A145"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
